--- a/Résultats Couleurs.xlsx
+++ b/Résultats Couleurs.xlsx
@@ -14,16 +14,17 @@
   <sheets>
     <sheet name="Moyenne" sheetId="1" r:id="rId1"/>
     <sheet name="Ecart-type" sheetId="5" r:id="rId2"/>
-    <sheet name="Médiane" sheetId="4" r:id="rId3"/>
-    <sheet name="Min" sheetId="2" r:id="rId4"/>
-    <sheet name="Max" sheetId="3" r:id="rId5"/>
+    <sheet name="AQoLs" sheetId="6" r:id="rId3"/>
+    <sheet name="Médiane" sheetId="4" r:id="rId4"/>
+    <sheet name="Min" sheetId="2" r:id="rId5"/>
+    <sheet name="Max" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="86">
   <si>
     <t>Dim</t>
   </si>
@@ -275,6 +276,12 @@
   </si>
   <si>
     <t>Cluster 5</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Variance</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1434,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1483,6 +1490,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1840,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3668,8 +3681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:F80"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5484,10 +5497,1295 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.21612985133670301</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.70304373346806803</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.91404534840479701</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.52464118333995</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1.88088584294299</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.42989506812169598</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.60610029165008095</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0.78938003848914995</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.92546014200995796</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1.0426032165198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.11380830253204299</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.36816281210843899</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.44809605674618402</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0982740502191399</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1.72092562027176</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.319677415408471</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.515600247101897</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.664917227096402</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.94842267670888902</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1.0309509770354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.3865745253669707E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.30348888513007899</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.32444253627509401</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0084090922895499</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1.85291187739464</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.243955127564431</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.44047520353507302</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.52841164137711005</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.80005598634122999</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1.03553133142206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5.7913104453228503E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.35452107511972802</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.53960930232558102</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0070984915705401</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1.6482758620689699</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.23662757070044599</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.497043429652261</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.63421131325033997</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.82583894158069004</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1.02422758486279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.1305601956596696E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.31239982647339198</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.46727701962120599</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.90833637753305396</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1.61787082649152</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.27587622365098302</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.45337503292459902</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.59646637845852801</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.82804750440528396</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1.0949607020960199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.0468769544025699E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.18975739853002299</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.35704187182326702</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.87801692439655898</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1.7280188585361</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.14051885100756201</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.34717108073861602</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.54603942744471101</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.74875061616457805</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1.0108141264380801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.3958958485442899E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.197578016526267</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.25387954680977898</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.82963620230700996</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.4344827586206901</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.28539859530181699</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.39286303902547998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.47044473234223599</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.80588981460779396</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1.03288829867895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2.7803074734955899E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.180912082566629</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.311941530708366</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.76665644944733302</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.63846071552968</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.137239200098423</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.35272625524272</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.55603718875984398</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.82069704567873503</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1.0732163923920901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.89481593569415E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.18780798092899501</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.32949632279864799</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.754214729370009</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.2896551724137899</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.12602142119402601</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.39675901958258297</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.62514553563213804</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.90925646435487595</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1.1360093491601699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.5627338586490899E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.18349601563845599</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.29523713359667098</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.74115584581432403</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.55100595031973</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.14911168221247501</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.34267892861297899</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.54068727758353896</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.79162489819044402</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1.0252391035189099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.6129717757091199E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.22815651903929701</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.590646413057208</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.73065774099221803</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.6358620689655201</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.12718371858285801</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.38567431067358798</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.69761615048021697</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.77136015768514599</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1.0442086225987499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4.0836890734731901E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.17308929822470201</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.28052569319735698</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.71588370570876403</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1.4421455938697301</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.19744014834564499</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.35149727688587901</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.50816797607312802</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.76662657683078606</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0.99108413618944902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.2389097386598601E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.18148099314109301</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.26391594326356699</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.70796409820737805</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.3556712444643499</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.19228435778865399</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.35558133556482602</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.49318253090546899</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.73234531865037</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1.04623899260191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.6798780945196201E-2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.235171285248092</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.271987989002347</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.67306517891599704</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.3282427725531201</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.240541762927723</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.421179793531262</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.53049598020740196</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.80323623541601297</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1.0418871916843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.6852231481144E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.16146572915746299</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.22736249371543499</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.648624667258208</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1.57931034482759</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.150112033896803</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.33235257673054303</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.452903817079302</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.70701594932922596</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1.0779930266552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.1066303649878201E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.19443600462031499</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.31907771814748598</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.62555456965394896</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1.31034482758621</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.13105327894539101</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.39368167259153097</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.5417797331734</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.79182323748817696</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1.10878588116381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.1764185908168097E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.153978031513712</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.30436247304422498</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.59368522020444203</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1.4599748160097801</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.140117183044286</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.31572127333312899</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.55973334362599003</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.72633761344522696</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1.08025624222467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.8962165467264001E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.17058571953402E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.3124286566147006E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.58480948676943101</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1.66379310344828</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.124990240191517</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.21556603993225801</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.26685152662510903</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.76320960014620498</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1.03964682843945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6.9048790216909101E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.13913823674359799</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.106716756112105</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.58207630878438299</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1.3448275862068999</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.296815111932903</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.35156014622382797</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.327901484633631</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.73491818845892498</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1.0565885246134501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.39417500681154E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6.4000050998580901E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8.3968288042706604E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.51446320442187099</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.6703065134099599</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.111500894721314</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.200106803143378</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.28359822792813599</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.67821418440548498</v>
+      </c>
+      <c r="K22" s="18">
+        <v>1.0457597319924401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.1268373110339698E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9.1106200392654602E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7.0969934640522897E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.51020408163265296</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1.36551724137931</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.17385177415623099</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.26506323387591302</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.26364908296703399</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.66612573358907101</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1.03958988376993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.2943477599949798E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6.8008356959601293E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5.8121941107987601E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.50690612204947705</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1.51870279146141</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.14252234754203699</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.21000742413853901</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.24134593353411901</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.70380690536591195</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1.0916466513700001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.6647443944797702E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.9555541054596205E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4.5696933132227301E-2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.44631765749778202</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1.2068965517241399</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.228012622591278</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.27973053581292001</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.238861843057846</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.73874156009377401</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1.15407822599863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.9715653983770301E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6.1995005365130001E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7.2769560027986999E-2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.443858890736955</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.42068965517241</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.13276621572262901</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.207830316551532</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.27569324729816203</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.65966427466767497</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1.0650310736027699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2">
+        <v>9.2955122938320808E-3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8.0340676279186896E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.247018732392046</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.40478572249290701</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1.3798467432950201</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7.2143512265832793E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.22877132984047799</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.49623686870233902</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.63672170181417798</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1.06042895968757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.25717629149317E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7.1088715422901599E-2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.11644927357286899</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.34977533817023798</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1.11034482758621</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.105591933231191</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.235779236419945</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.358733014118438</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.64202542115731098</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1.1433214368872699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.6301463108938699E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9.5399421987320598E-2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.139816656728285</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.29636202307009801</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0.90344827586206899</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.17576541588685199</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.29178996314216799</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.38543345140245</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.61292697032708598</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1.0496304768493701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6.8207717849826897E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3.8897703867956802E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.172816603405686</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.26783280077156402</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1.13363038344259</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4.9411748242789599E-2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.140028376252228</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.41934387734112699</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.54003628383493596</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1.0726652258260301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.06987610842757E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.6695692082222099E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.9649472096530901E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.247559893522626</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.2965517241379301</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.11207013021854099</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.16498754007463501</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.183345129875021</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.51782677938883104</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1.0146437383184399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4.0555478256312696E-3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.0979101593437102E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.114897525504862</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.23782739737142</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1.2087443505631099</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2.6442737642088199E-2</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7.8775224064920601E-2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.35496527673811301</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.49900387153713399</v>
+      </c>
+      <c r="K32" s="18">
+        <v>1.02456481944649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.44561776869546E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.4600549015623101E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.28465242622546E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.23528373067905101</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.12789066470511101</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.14854163186647901</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.149220396749256</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.46800081681044498</v>
+      </c>
+      <c r="K33" s="18">
+        <v>1.0314498964510499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4.6667105564952996E-3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.16000909740304E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2.7776927192657501E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.22015076824771901</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="G34" s="2">
+        <v>6.8242315172124104E-2</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.107947629719019</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.16414535738981101</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.46108174268874302</v>
+      </c>
+      <c r="K34" s="18">
+        <v>1.0314498964510499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4.0430612147262096E-3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.9637046227989698E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8.2087863636055095E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.16918854497144001</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1.12598893232844</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3.0332917781812501E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <v>9.6108940758850694E-2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.308020980467898</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.43476706690277001</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1.1029626861597099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1.8640760059437701E-3</v>
+      </c>
+      <c r="C36" s="21">
+        <v>1.66142233370964E-2</v>
+      </c>
+      <c r="D36" s="21">
+        <v>2.0406192508141501E-2</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0.118312924242086</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0.75885057471264405</v>
+      </c>
+      <c r="G36" s="21">
+        <v>2.6118541173567801E-2</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0.109663627828297</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0.14539788188889299</v>
+      </c>
+      <c r="J36" s="21">
+        <v>0.36649582327019697</v>
+      </c>
+      <c r="K36" s="22">
+        <v>1.0358244598492401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <sortState ref="A3:K37">
+    <sortCondition descending="1" ref="E2"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:F36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:K36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7096,7 +8394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
@@ -8710,7 +10008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>

--- a/Résultats Couleurs.xlsx
+++ b/Résultats Couleurs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\enysb\Google Drive\Etudes\Git\Projet-SBT13-Addictologie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\enysb\Desktop\Projet-SBT13-Addictologie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Moyenne" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="86">
   <si>
     <t>Dim</t>
   </si>
@@ -281,7 +281,7 @@
     <t>Moyenne</t>
   </si>
   <si>
-    <t>Variance</t>
+    <t>Validation Hypothèses</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,8 +604,62 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1389,6 +1443,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1434,7 +1617,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1493,9 +1676,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1543,6 +1777,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1851,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,50 +2399,51 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="62">
         <v>0.74350256973537698</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="56">
         <v>1.6948521648533199</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="56">
         <v>2.41310497448193</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="56">
         <v>2.12067455886416</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="63">
         <v>2.3086002088190298</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="62">
         <v>6.9048790216909101E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="56">
         <v>0.13913823674359799</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="56">
         <v>0.106716756112105</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="56">
         <v>0.58207630878438299</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="57">
         <v>1.3448275862068999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="G17" s="102"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>7.3958958485442899E-2</v>
       </c>
       <c r="C18" s="2">
@@ -2213,15 +2455,16 @@
       <c r="E18" s="2">
         <v>0.82963620230700996</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="59">
         <v>1.4344827586206901</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="G18" s="100"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>2.6301463108938699E-2</v>
       </c>
       <c r="C19" s="2">
@@ -2233,15 +2476,16 @@
       <c r="E19" s="2">
         <v>0.29636202307009801</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="59">
         <v>0.90344827586206899</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="G19" s="101"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2.1066303649878201E-2</v>
       </c>
       <c r="C20" s="2">
@@ -2253,15 +2497,16 @@
       <c r="E20" s="2">
         <v>0.62555456965394896</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="59">
         <v>1.31034482758621</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="G20" s="101"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1.89481593569415E-2</v>
       </c>
       <c r="C21" s="2">
@@ -2273,55 +2518,58 @@
       <c r="E21" s="2">
         <v>0.754214729370009</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="59">
         <v>1.2896551724137899</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="G21" s="101"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>5.7913104453228503E-2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>0.35452107511972802</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>0.53960930232558102</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>1.0070984915705401</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="61">
         <v>1.6482758620689699</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="G22" s="104"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="62">
         <v>4.6647443944797702E-2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="56">
         <v>8.9555541054596205E-2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="56">
         <v>4.5696933132227301E-2</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="56">
         <v>0.44631765749778202</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="57">
         <v>1.2068965517241399</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="G23" s="102"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>3.1268373110339698E-2</v>
       </c>
       <c r="C24" s="2">
@@ -2333,15 +2581,16 @@
       <c r="E24" s="2">
         <v>0.51020408163265296</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="59">
         <v>1.36551724137931</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="G24" s="100"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1.06987610842757E-2</v>
       </c>
       <c r="C25" s="2">
@@ -2353,15 +2602,16 @@
       <c r="E25" s="2">
         <v>0.247559893522626</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="59">
         <v>1.2965517241379301</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="G25" s="101"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2.6852231481144E-2</v>
       </c>
       <c r="C26" s="2">
@@ -2373,15 +2623,16 @@
       <c r="E26" s="2">
         <v>0.648624667258208</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="59">
         <v>1.57931034482759</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="G26" s="100"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>4.6667105564952996E-3</v>
       </c>
       <c r="C27" s="2">
@@ -2393,15 +2644,16 @@
       <c r="E27" s="2">
         <v>0.22015076824771901</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="59">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="G27" s="101"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1.9715653983770301E-2</v>
       </c>
       <c r="C28" s="2">
@@ -2413,15 +2665,16 @@
       <c r="E28" s="2">
         <v>0.443858890736955</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="59">
         <v>1.42068965517241</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="G28" s="100"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>1.25717629149317E-2</v>
       </c>
       <c r="C29" s="2">
@@ -2433,35 +2686,37 @@
       <c r="E29" s="2">
         <v>0.34977533817023798</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="59">
         <v>1.11034482758621</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="G29" s="100"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>1.44561776869546E-2</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>3.4600549015623101E-2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>2.28465242622546E-2</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>0.23528373067905101</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="61">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="G30" s="105"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>4.0836890734731901E-2</v>
       </c>
       <c r="C31" s="2">
@@ -2473,15 +2728,16 @@
       <c r="E31" s="2">
         <v>0.71588370570876403</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="59">
         <v>1.4421455938697301</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="G31" s="102"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1.8640760059437701E-3</v>
       </c>
       <c r="C32" s="2">
@@ -2493,15 +2749,16 @@
       <c r="E32" s="2">
         <v>0.118312924242086</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="59">
         <v>0.75885057471264405</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="G32" s="101"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>2.6129717757091199E-2</v>
       </c>
       <c r="C33" s="2">
@@ -2513,15 +2770,16 @@
       <c r="E33" s="2">
         <v>0.73065774099221803</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="59">
         <v>1.6358620689655201</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="G33" s="100"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>9.2955122938320808E-3</v>
       </c>
       <c r="C34" s="2">
@@ -2533,32 +2791,34 @@
       <c r="E34" s="2">
         <v>0.40478572249290701</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="59">
         <v>1.3798467432950201</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="G34" s="105"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="56">
         <v>7.3865745253669707E-2</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="56">
         <v>0.30348888513007899</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="56">
         <v>0.32444253627509401</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="56">
         <v>1.0084090922895499</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="57">
         <v>1.85291187739464</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="G35" s="102"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="67" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -2573,12 +2833,13 @@
       <c r="E36" s="2">
         <v>0.50690612204947705</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="59">
         <v>1.51870279146141</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="G36" s="100"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -2593,12 +2854,13 @@
       <c r="E37" s="2">
         <v>0.58480948676943101</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="59">
         <v>1.66379310344828</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="G37" s="100"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="67" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -2613,52 +2875,55 @@
       <c r="E38" s="2">
         <v>0.90833637753305396</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="59">
         <v>1.61787082649152</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+      <c r="G38" s="100"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>1.39417500681154E-2</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>6.4000050998580901E-2</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>8.3968288042706604E-2</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>0.51446320442187099</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="61">
         <v>1.6703065134099599</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="G39" s="103"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="56">
         <v>6.6798780945196201E-2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="56">
         <v>0.235171285248092</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="56">
         <v>0.271987989002347</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="56">
         <v>0.67306517891599704</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="57">
         <v>1.3282427725531201</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="G40" s="102"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="70" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -2673,12 +2938,13 @@
       <c r="E41" s="2">
         <v>0.70796409820737805</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="59">
         <v>1.3556712444643499</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="G41" s="100"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="70" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -2693,132 +2959,139 @@
       <c r="E42" s="2">
         <v>0.87801692439655898</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="59">
         <v>1.7280188585361</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+      <c r="G42" s="100"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>2.7803074734955899E-2</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>0.180912082566629</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>0.311941530708366</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>0.76665644944733302</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="61">
         <v>1.63846071552968</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="G43" s="103"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="73">
         <v>4.0430612147262096E-3</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="74">
         <v>1.9637046227989698E-2</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="74">
         <v>8.2087863636055095E-2</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="74">
         <v>0.16918854497144001</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="75">
         <v>1.12598893232844</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="G44" s="106"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="77">
         <v>3.1764185908168097E-2</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="78">
         <v>0.153978031513712</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="78">
         <v>0.30436247304422498</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="78">
         <v>0.59368522020444203</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="79">
         <v>1.4599748160097801</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="G45" s="101"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="77">
         <v>4.0555478256312696E-3</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="78">
         <v>2.0979101593437102E-2</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="78">
         <v>0.114897525504862</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="78">
         <v>0.23782739737142</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="79">
         <v>1.2087443505631099</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="G46" s="101"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="77">
         <v>6.8207717849826897E-3</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="78">
         <v>3.8897703867956802E-2</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="78">
         <v>0.172816603405686</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="78">
         <v>0.26783280077156402</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="79">
         <v>1.13363038344259</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="G47" s="101"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="81">
         <v>3.5627338586490899E-2</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="82">
         <v>0.18349601563845599</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="82">
         <v>0.29523713359667098</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="82">
         <v>0.74115584581432403</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="83">
         <v>1.55100595031973</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+      <c r="G48" s="103"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="84" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
@@ -2836,9 +3109,10 @@
       <c r="F49" s="18">
         <v>1.72092562027176</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
+      <c r="G49" s="102"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="85" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="21">
@@ -2856,8 +3130,9 @@
       <c r="F50" s="22">
         <v>1.88088584294299</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="103"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23" t="s">
         <v>49</v>
       </c>
@@ -2873,11 +3148,12 @@
       <c r="E51" s="25">
         <v>0.67716105930993398</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="25">
         <v>1.41913955104496</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="107"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>50</v>
       </c>
@@ -2897,7 +3173,7 @@
         <v>2.0584328788223898</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>51</v>
       </c>
@@ -2917,7 +3193,7 @@
         <v>1.50887107639411</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>52</v>
       </c>
@@ -2937,7 +3213,7 @@
         <v>0.47019983137544802</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>53</v>
       </c>
@@ -2957,7 +3233,7 @@
         <v>0.232418923817996</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>54</v>
       </c>
@@ -2977,7 +3253,7 @@
         <v>0.51949579484882902</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>55</v>
       </c>
@@ -2997,7 +3273,7 @@
         <v>0.61401435238403901</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
         <v>56</v>
       </c>
@@ -3017,7 +3293,7 @@
         <v>0.92823619797835999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>57</v>
       </c>
@@ -3037,7 +3313,7 @@
         <v>3.9520305866032102</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>58</v>
       </c>
@@ -3057,7 +3333,7 @@
         <v>3.59190777847695</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>59</v>
       </c>
@@ -3077,7 +3353,7 @@
         <v>3.64093874669484</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="17" t="s">
         <v>60</v>
       </c>
@@ -3097,7 +3373,7 @@
         <v>3.5517710809500702</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
         <v>61</v>
       </c>
@@ -3117,7 +3393,7 @@
         <v>4.2737772775577403</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>62</v>
       </c>
@@ -3460,6 +3736,18 @@
     <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="B17:F51">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:F58">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3471,7 +3759,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:F58">
+  <conditionalFormatting sqref="B59:F63">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -3483,7 +3771,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:F63">
+  <conditionalFormatting sqref="B64:F68">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3495,7 +3783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B64:F68">
+  <conditionalFormatting sqref="A12:F12">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3507,7 +3795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:F12">
+  <conditionalFormatting sqref="A13:F13">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3519,7 +3807,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:F13">
+  <conditionalFormatting sqref="B14:F14">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3531,7 +3819,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:F14">
+  <conditionalFormatting sqref="B15:F15">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3543,7 +3831,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:F15">
+  <conditionalFormatting sqref="B16:F16">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3555,19 +3843,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:F16">
+  <conditionalFormatting sqref="B69:F73">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69:F73">
+  <conditionalFormatting sqref="B74:F77">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3579,20 +3867,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:F77">
+  <conditionalFormatting sqref="B78:F78">
     <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B78:F78">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3604,6 +3880,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B79:F79">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80:F80">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:F11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3615,8 +3915,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:F80">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3627,47 +3948,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:F11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F2">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4Rating">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:F3">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="5Rating">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:F4">
+  <conditionalFormatting sqref="G17:G50">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -3681,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3986,47 +4274,47 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="2">
         <v>0.61648496010700304</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="2">
         <v>0.71802944971537297</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="2">
         <v>0.78972421378315505</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="2">
         <v>0.93757133881608101</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="18">
         <v>1.08670804539001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="56">
         <v>0.296815111932903</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="56">
         <v>0.35156014622382797</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="56">
         <v>0.327901484633631</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="56">
         <v>0.73491818845892498</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="57">
         <v>1.0565885246134501</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="58" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -4041,12 +4329,12 @@
       <c r="E18" s="2">
         <v>0.80588981460779396</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="59">
         <v>1.03288829867895</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
@@ -4061,12 +4349,12 @@
       <c r="E19" s="2">
         <v>0.61292697032708598</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="59">
         <v>1.0496304768493701</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="58" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
@@ -4081,12 +4369,12 @@
       <c r="E20" s="2">
         <v>0.79182323748817696</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="59">
         <v>1.10878588116381</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="58" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
@@ -4101,52 +4389,52 @@
       <c r="E21" s="2">
         <v>0.90925646435487595</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="59">
         <v>1.1360093491601699</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>0.23662757070044599</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>0.497043429652261</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>0.63421131325033997</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>0.82583894158069004</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="61">
         <v>1.02422758486279</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="56">
         <v>0.228012622591278</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="56">
         <v>0.27973053581292001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="56">
         <v>0.238861843057846</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="56">
         <v>0.73874156009377401</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="57">
         <v>1.15407822599863</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="58" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -4161,12 +4449,12 @@
       <c r="E24" s="2">
         <v>0.66612573358907101</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="59">
         <v>1.03958988376993</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
@@ -4181,12 +4469,12 @@
       <c r="E25" s="2">
         <v>0.51782677938883104</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="59">
         <v>1.0146437383184399</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="58" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -4201,12 +4489,12 @@
       <c r="E26" s="2">
         <v>0.70701594932922596</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="59">
         <v>1.0779930266552</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
@@ -4221,12 +4509,12 @@
       <c r="E27" s="2">
         <v>0.46108174268874302</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="59">
         <v>1.0314498964510499</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
@@ -4241,12 +4529,12 @@
       <c r="E28" s="2">
         <v>0.65966427466767497</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="59">
         <v>1.0650310736027699</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
@@ -4261,52 +4549,52 @@
       <c r="E29" s="2">
         <v>0.64202542115731098</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="59">
         <v>1.1433214368872699</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>0.12789066470511101</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>0.14854163186647901</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>0.149220396749256</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>0.46800081681044498</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="61">
         <v>1.0314498964510499</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="56">
         <v>0.19744014834564499</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="56">
         <v>0.35149727688587901</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="56">
         <v>0.50816797607312802</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="56">
         <v>0.76662657683078606</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="57">
         <v>0.99108413618944902</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
@@ -4321,12 +4609,12 @@
       <c r="E32" s="2">
         <v>0.36649582327019697</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="59">
         <v>1.0358244598492401</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
@@ -4341,52 +4629,52 @@
       <c r="E33" s="2">
         <v>0.77136015768514599</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="59">
         <v>1.0442086225987499</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>7.2143512265832793E-2</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>0.22877132984047799</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="4">
         <v>0.49623686870233902</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="4">
         <v>0.63672170181417798</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="61">
         <v>1.06042895968757</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="56">
         <v>0.243955127564431</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="56">
         <v>0.44047520353507302</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="56">
         <v>0.52841164137711005</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="56">
         <v>0.80005598634122999</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="57">
         <v>1.03553133142206</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -4401,12 +4689,12 @@
       <c r="E36" s="2">
         <v>0.70380690536591195</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="59">
         <v>1.0916466513700001</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -4421,12 +4709,12 @@
       <c r="E37" s="2">
         <v>0.76320960014620498</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="59">
         <v>1.03964682843945</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -4441,52 +4729,52 @@
       <c r="E38" s="2">
         <v>0.82804750440528396</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="59">
         <v>1.0949607020960199</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>0.111500894721314</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>0.200106803143378</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>0.28359822792813599</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>0.67821418440548498</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="61">
         <v>1.0457597319924401</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="56">
         <v>0.240541762927723</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="56">
         <v>0.421179793531262</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="56">
         <v>0.53049598020740196</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="56">
         <v>0.80323623541601297</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="57">
         <v>1.0418871916843</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="58" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -4501,12 +4789,12 @@
       <c r="E41" s="2">
         <v>0.73234531865037</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="59">
         <v>1.04623899260191</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -4521,52 +4809,52 @@
       <c r="E42" s="2">
         <v>0.74875061616457805</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="59">
         <v>1.0108141264380801</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>0.137239200098423</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>0.35272625524272</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>0.55603718875984398</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>0.82069704567873503</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="61">
         <v>1.0732163923920901</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="56">
         <v>3.0332917781812501E-2</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="56">
         <v>9.6108940758850694E-2</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="56">
         <v>0.308020980467898</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="56">
         <v>0.43476706690277001</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="57">
         <v>1.1029626861597099</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="58" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
@@ -4581,12 +4869,12 @@
       <c r="E45" s="2">
         <v>0.72633761344522696</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="59">
         <v>1.08025624222467</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="58" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
@@ -4601,12 +4889,12 @@
       <c r="E46" s="2">
         <v>0.49900387153713399</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="59">
         <v>1.02456481944649</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="58" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
@@ -4621,27 +4909,27 @@
       <c r="E47" s="2">
         <v>0.54003628383493596</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="59">
         <v>1.0726652258260301</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>0.14911168221247501</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="4">
         <v>0.34267892861297899</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>0.54068727758353896</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="4">
         <v>0.79162489819044402</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="61">
         <v>1.0252391035189099</v>
       </c>
     </row>
@@ -5497,30 +5785,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -5538,1221 +5824,872 @@
       <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="G2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="62">
+        <v>6.9048790216909101E-2</v>
+      </c>
+      <c r="C3" s="56">
+        <v>0.13913823674359799</v>
+      </c>
+      <c r="D3" s="56">
+        <v>0.106716756112105</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0.58207630878438299</v>
+      </c>
+      <c r="F3" s="56">
+        <v>1.3448275862068999</v>
+      </c>
+      <c r="G3" s="102"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.3958958485442899E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.197578016526267</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.25387954680977898</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.82963620230700996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.4344827586206901</v>
+      </c>
+      <c r="G4" s="100"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.6301463108938699E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.5399421987320598E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.139816656728285</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.29636202307009801</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.90344827586206899</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.1066303649878201E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.19443600462031499</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.31907771814748598</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.62555456965394896</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.31034482758621</v>
+      </c>
+      <c r="G6" s="101"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.89481593569415E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.18780798092899501</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.32949632279864799</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.754214729370009</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.2896551724137899</v>
+      </c>
+      <c r="G7" s="101"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.7913104453228503E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.35452107511972802</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.53960930232558102</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.0070984915705401</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.6482758620689699</v>
+      </c>
+      <c r="G8" s="104"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="62">
+        <v>4.6647443944797702E-2</v>
+      </c>
+      <c r="C9" s="56">
+        <v>8.9555541054596205E-2</v>
+      </c>
+      <c r="D9" s="56">
+        <v>4.5696933132227301E-2</v>
+      </c>
+      <c r="E9" s="56">
+        <v>0.44631765749778202</v>
+      </c>
+      <c r="F9" s="56">
+        <v>1.2068965517241399</v>
+      </c>
+      <c r="G9" s="102"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.1268373110339698E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.1106200392654602E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7.0969934640522897E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.51020408163265296</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.36551724137931</v>
+      </c>
+      <c r="G10" s="100"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.06987610842757E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.6695692082222099E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.9649472096530901E-2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.247559893522626</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.2965517241379301</v>
+      </c>
+      <c r="G11" s="101"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.6852231481144E-2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.16146572915746299</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.22736249371543499</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.648624667258208</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.57931034482759</v>
+      </c>
+      <c r="G12" s="100"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.6667105564952996E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.16000909740304E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.7776927192657501E-2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.22015076824771901</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="101"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.9715653983770301E-2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.1995005365130001E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.2769560027986999E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.443858890736955</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.42068965517241</v>
+      </c>
+      <c r="G14" s="100"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.25717629149317E-2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.1088715422901599E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.11644927357286899</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.34977533817023798</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.11034482758621</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.44561776869546E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.4600549015623101E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2.28465242622546E-2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.23528373067905101</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="G16" s="105"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="62">
+        <v>4.0836890734731901E-2</v>
+      </c>
+      <c r="C17" s="56">
+        <v>0.17308929822470201</v>
+      </c>
+      <c r="D17" s="56">
+        <v>0.28052569319735698</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0.71588370570876403</v>
+      </c>
+      <c r="F17" s="56">
+        <v>1.4421455938697301</v>
+      </c>
+      <c r="G17" s="102"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.8640760059437701E-3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.66142233370964E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2.0406192508141501E-2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.118312924242086</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.75885057471264405</v>
+      </c>
+      <c r="G18" s="101"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.6129717757091199E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.22815651903929701</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.590646413057208</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.73065774099221803</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.6358620689655201</v>
+      </c>
+      <c r="G19" s="100"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9.2955122938320808E-3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8.0340676279186896E-2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.247018732392046</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.40478572249290701</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.3798467432950201</v>
+      </c>
+      <c r="G20" s="105"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="56">
+        <v>7.3865745253669707E-2</v>
+      </c>
+      <c r="C21" s="56">
+        <v>0.30348888513007899</v>
+      </c>
+      <c r="D21" s="56">
+        <v>0.32444253627509401</v>
+      </c>
+      <c r="E21" s="56">
+        <v>1.0084090922895499</v>
+      </c>
+      <c r="F21" s="56">
+        <v>1.85291187739464</v>
+      </c>
+      <c r="G21" s="102"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.2943477599949798E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6.8008356959601293E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.8121941107987601E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.50690612204947705</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.51870279146141</v>
+      </c>
+      <c r="G22" s="100"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.8962165467264001E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.17058571953402E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6.3124286566147006E-2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.58480948676943101</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.66379310344828</v>
+      </c>
+      <c r="G23" s="100"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8.1305601956596696E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.31239982647339198</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.46727701962120599</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.90833637753305396</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.61787082649152</v>
+      </c>
+      <c r="G24" s="100"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1.39417500681154E-2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.4000050998580901E-2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8.3968288042706604E-2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.51446320442187099</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1.6703065134099599</v>
+      </c>
+      <c r="G25" s="103"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="56">
+        <v>6.6798780945196201E-2</v>
+      </c>
+      <c r="C26" s="56">
+        <v>0.235171285248092</v>
+      </c>
+      <c r="D26" s="56">
+        <v>0.271987989002347</v>
+      </c>
+      <c r="E26" s="56">
+        <v>0.67306517891599704</v>
+      </c>
+      <c r="F26" s="56">
+        <v>1.3282427725531201</v>
+      </c>
+      <c r="G26" s="102"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4.2389097386598601E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.18148099314109301</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.26391594326356699</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.70796409820737805</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.3556712444643499</v>
+      </c>
+      <c r="G27" s="100"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.0468769544025699E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.18975739853002299</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.35704187182326702</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.87801692439655898</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.7280188585361</v>
+      </c>
+      <c r="G28" s="100"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2.7803074734955899E-2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.180912082566629</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.311941530708366</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.76665644944733302</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1.63846071552968</v>
+      </c>
+      <c r="G29" s="103"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="73">
+        <v>4.0430612147262096E-3</v>
+      </c>
+      <c r="C30" s="74">
+        <v>1.9637046227989698E-2</v>
+      </c>
+      <c r="D30" s="74">
+        <v>8.2087863636055095E-2</v>
+      </c>
+      <c r="E30" s="74">
+        <v>0.16918854497144001</v>
+      </c>
+      <c r="F30" s="74">
+        <v>1.12598893232844</v>
+      </c>
+      <c r="G30" s="106"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="77">
+        <v>3.1764185908168097E-2</v>
+      </c>
+      <c r="C31" s="78">
+        <v>0.153978031513712</v>
+      </c>
+      <c r="D31" s="78">
+        <v>0.30436247304422498</v>
+      </c>
+      <c r="E31" s="78">
+        <v>0.59368522020444203</v>
+      </c>
+      <c r="F31" s="78">
+        <v>1.4599748160097801</v>
+      </c>
+      <c r="G31" s="101"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="77">
+        <v>4.0555478256312696E-3</v>
+      </c>
+      <c r="C32" s="78">
+        <v>2.0979101593437102E-2</v>
+      </c>
+      <c r="D32" s="78">
+        <v>0.114897525504862</v>
+      </c>
+      <c r="E32" s="78">
+        <v>0.23782739737142</v>
+      </c>
+      <c r="F32" s="78">
+        <v>1.2087443505631099</v>
+      </c>
+      <c r="G32" s="101"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="77">
+        <v>6.8207717849826897E-3</v>
+      </c>
+      <c r="C33" s="78">
+        <v>3.8897703867956802E-2</v>
+      </c>
+      <c r="D33" s="78">
+        <v>0.172816603405686</v>
+      </c>
+      <c r="E33" s="78">
+        <v>0.26783280077156402</v>
+      </c>
+      <c r="F33" s="78">
+        <v>1.13363038344259</v>
+      </c>
+      <c r="G33" s="101"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="81">
+        <v>3.5627338586490899E-2</v>
+      </c>
+      <c r="C34" s="82">
+        <v>0.18349601563845599</v>
+      </c>
+      <c r="D34" s="82">
+        <v>0.29523713359667098</v>
+      </c>
+      <c r="E34" s="82">
+        <v>0.74115584581432403</v>
+      </c>
+      <c r="F34" s="82">
+        <v>1.55100595031973</v>
+      </c>
+      <c r="G34" s="103"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="56">
+        <v>0.11380830253204299</v>
+      </c>
+      <c r="C35" s="56">
+        <v>0.36816281210843899</v>
+      </c>
+      <c r="D35" s="56">
+        <v>0.44809605674618402</v>
+      </c>
+      <c r="E35" s="56">
+        <v>1.0982740502191399</v>
+      </c>
+      <c r="F35" s="56">
+        <v>1.72092562027176</v>
+      </c>
+      <c r="G35" s="102"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B36" s="4">
         <v>0.21612985133670301</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C36" s="4">
         <v>0.70304373346806803</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D36" s="4">
         <v>0.91404534840479701</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E36" s="4">
         <v>1.52464118333995</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F36" s="4">
         <v>1.88088584294299</v>
       </c>
-      <c r="G3" s="15">
-        <v>0.42989506812169598</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0.60610029165008095</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0.78938003848914995</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0.92546014200995796</v>
-      </c>
-      <c r="K3" s="16">
-        <v>1.0426032165198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.11380830253204299</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.36816281210843899</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.44809605674618402</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0982740502191399</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1.72092562027176</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.319677415408471</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.515600247101897</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.664917227096402</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.94842267670888902</v>
-      </c>
-      <c r="K4" s="18">
-        <v>1.0309509770354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7.3865745253669707E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.30348888513007899</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.32444253627509401</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0084090922895499</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1.85291187739464</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.243955127564431</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.44047520353507302</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.52841164137711005</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.80005598634122999</v>
-      </c>
-      <c r="K5" s="18">
-        <v>1.03553133142206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5.7913104453228503E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.35452107511972802</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.53960930232558102</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.0070984915705401</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1.6482758620689699</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.23662757070044599</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.497043429652261</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.63421131325033997</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.82583894158069004</v>
-      </c>
-      <c r="K6" s="18">
-        <v>1.02422758486279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8.1305601956596696E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.31239982647339198</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.46727701962120599</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.90833637753305396</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1.61787082649152</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.27587622365098302</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.45337503292459902</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.59646637845852801</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.82804750440528396</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1.0949607020960199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3.0468769544025699E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.18975739853002299</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.35704187182326702</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.87801692439655898</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1.7280188585361</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.14051885100756201</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.34717108073861602</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.54603942744471101</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.74875061616457805</v>
-      </c>
-      <c r="K8" s="18">
-        <v>1.0108141264380801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7.3958958485442899E-2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.197578016526267</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.25387954680977898</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.82963620230700996</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1.4344827586206901</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.28539859530181699</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.39286303902547998</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.47044473234223599</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.80588981460779396</v>
-      </c>
-      <c r="K9" s="18">
-        <v>1.03288829867895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2.7803074734955899E-2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.180912082566629</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.311941530708366</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.76665644944733302</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1.63846071552968</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.137239200098423</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.35272625524272</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.55603718875984398</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.82069704567873503</v>
-      </c>
-      <c r="K10" s="18">
-        <v>1.0732163923920901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1.89481593569415E-2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.18780798092899501</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.32949632279864799</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.754214729370009</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1.2896551724137899</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.12602142119402601</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.39675901958258297</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.62514553563213804</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.90925646435487595</v>
-      </c>
-      <c r="K11" s="18">
-        <v>1.1360093491601699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3.5627338586490899E-2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.18349601563845599</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.29523713359667098</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.74115584581432403</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1.55100595031973</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.14911168221247501</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.34267892861297899</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.54068727758353896</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.79162489819044402</v>
-      </c>
-      <c r="K12" s="18">
-        <v>1.0252391035189099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2.6129717757091199E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.22815651903929701</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.590646413057208</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.73065774099221803</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1.6358620689655201</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.12718371858285801</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.38567431067358798</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.69761615048021697</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.77136015768514599</v>
-      </c>
-      <c r="K13" s="18">
-        <v>1.0442086225987499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4.0836890734731901E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.17308929822470201</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.28052569319735698</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.71588370570876403</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1.4421455938697301</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.19744014834564499</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.35149727688587901</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.50816797607312802</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.76662657683078606</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0.99108413618944902</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4.2389097386598601E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.18148099314109301</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.26391594326356699</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.70796409820737805</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1.3556712444643499</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.19228435778865399</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.35558133556482602</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.49318253090546899</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.73234531865037</v>
-      </c>
-      <c r="K15" s="18">
-        <v>1.04623899260191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2">
-        <v>6.6798780945196201E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.235171285248092</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.271987989002347</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.67306517891599704</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1.3282427725531201</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.240541762927723</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.421179793531262</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.53049598020740196</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.80323623541601297</v>
-      </c>
-      <c r="K16" s="18">
-        <v>1.0418871916843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2.6852231481144E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.16146572915746299</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.22736249371543499</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.648624667258208</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1.57931034482759</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.150112033896803</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.33235257673054303</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.452903817079302</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.70701594932922596</v>
-      </c>
-      <c r="K17" s="18">
-        <v>1.0779930266552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2.1066303649878201E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.19443600462031499</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.31907771814748598</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.62555456965394896</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1.31034482758621</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.13105327894539101</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.39368167259153097</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.5417797331734</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.79182323748817696</v>
-      </c>
-      <c r="K18" s="18">
-        <v>1.10878588116381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3.1764185908168097E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.153978031513712</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.30436247304422498</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.59368522020444203</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1.4599748160097801</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.140117183044286</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.31572127333312899</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.55973334362599003</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.72633761344522696</v>
-      </c>
-      <c r="K19" s="18">
-        <v>1.08025624222467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1.8962165467264001E-2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>7.17058571953402E-2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6.3124286566147006E-2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.58480948676943101</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1.66379310344828</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.124990240191517</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.21556603993225801</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.26685152662510903</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.76320960014620498</v>
-      </c>
-      <c r="K20" s="18">
-        <v>1.03964682843945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6.9048790216909101E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.13913823674359799</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.106716756112105</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.58207630878438299</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1.3448275862068999</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.296815111932903</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.35156014622382797</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.327901484633631</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.73491818845892498</v>
-      </c>
-      <c r="K21" s="18">
-        <v>1.0565885246134501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.39417500681154E-2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6.4000050998580901E-2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>8.3968288042706604E-2</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.51446320442187099</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1.6703065134099599</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.111500894721314</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.200106803143378</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0.28359822792813599</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.67821418440548498</v>
-      </c>
-      <c r="K22" s="18">
-        <v>1.0457597319924401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3.1268373110339698E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9.1106200392654602E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>7.0969934640522897E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.51020408163265296</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1.36551724137931</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.17385177415623099</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.26506323387591302</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.26364908296703399</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.66612573358907101</v>
-      </c>
-      <c r="K23" s="18">
-        <v>1.03958988376993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2.2943477599949798E-2</v>
-      </c>
-      <c r="C24" s="2">
-        <v>6.8008356959601293E-2</v>
-      </c>
-      <c r="D24" s="2">
-        <v>5.8121941107987601E-2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.50690612204947705</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1.51870279146141</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.14252234754203699</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.21000742413853901</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.24134593353411901</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.70380690536591195</v>
-      </c>
-      <c r="K24" s="18">
-        <v>1.0916466513700001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4.6647443944797702E-2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.9555541054596205E-2</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4.5696933132227301E-2</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.44631765749778202</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1.2068965517241399</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.228012622591278</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.27973053581292001</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.238861843057846</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.73874156009377401</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1.15407822599863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1.9715653983770301E-2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>6.1995005365130001E-2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>7.2769560027986999E-2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.443858890736955</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1.42068965517241</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.13276621572262901</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.207830316551532</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.27569324729816203</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.65966427466767497</v>
-      </c>
-      <c r="K26" s="18">
-        <v>1.0650310736027699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9.2955122938320808E-3</v>
-      </c>
-      <c r="C27" s="2">
-        <v>8.0340676279186896E-2</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.247018732392046</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.40478572249290701</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1.3798467432950201</v>
-      </c>
-      <c r="G27" s="2">
-        <v>7.2143512265832793E-2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.22877132984047799</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.49623686870233902</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.63672170181417798</v>
-      </c>
-      <c r="K27" s="18">
-        <v>1.06042895968757</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1.25717629149317E-2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>7.1088715422901599E-2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.11644927357286899</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.34977533817023798</v>
-      </c>
-      <c r="F28" s="18">
-        <v>1.11034482758621</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.105591933231191</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.235779236419945</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.358733014118438</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.64202542115731098</v>
-      </c>
-      <c r="K28" s="18">
-        <v>1.1433214368872699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2.6301463108938699E-2</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9.5399421987320598E-2</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.139816656728285</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.29636202307009801</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0.90344827586206899</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.17576541588685199</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.29178996314216799</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.38543345140245</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.61292697032708598</v>
-      </c>
-      <c r="K29" s="18">
-        <v>1.0496304768493701</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="2">
-        <v>6.8207717849826897E-3</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3.8897703867956802E-2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.172816603405686</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.26783280077156402</v>
-      </c>
-      <c r="F30" s="18">
-        <v>1.13363038344259</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4.9411748242789599E-2</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.140028376252228</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.41934387734112699</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.54003628383493596</v>
-      </c>
-      <c r="K30" s="18">
-        <v>1.0726652258260301</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1.06987610842757E-2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3.6695692082222099E-2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2.9649472096530901E-2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0.247559893522626</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1.2965517241379301</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.11207013021854099</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.16498754007463501</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0.183345129875021</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.51782677938883104</v>
-      </c>
-      <c r="K31" s="18">
-        <v>1.0146437383184399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="2">
-        <v>4.0555478256312696E-3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2.0979101593437102E-2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.114897525504862</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0.23782739737142</v>
-      </c>
-      <c r="F32" s="18">
-        <v>1.2087443505631099</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2.6442737642088199E-2</v>
-      </c>
-      <c r="H32" s="2">
-        <v>7.8775224064920601E-2</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0.35496527673811301</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.49900387153713399</v>
-      </c>
-      <c r="K32" s="18">
-        <v>1.02456481944649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1.44561776869546E-2</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3.4600549015623101E-2</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2.28465242622546E-2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0.23528373067905101</v>
-      </c>
-      <c r="F33" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0.12789066470511101</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.14854163186647901</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0.149220396749256</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.46800081681044498</v>
-      </c>
-      <c r="K33" s="18">
-        <v>1.0314498964510499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2">
-        <v>4.6667105564952996E-3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>2.16000909740304E-2</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2.7776927192657501E-2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.22015076824771901</v>
-      </c>
-      <c r="F34" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="G34" s="2">
-        <v>6.8242315172124104E-2</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.107947629719019</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.16414535738981101</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.46108174268874302</v>
-      </c>
-      <c r="K34" s="18">
-        <v>1.0314498964510499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2">
-        <v>4.0430612147262096E-3</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.9637046227989698E-2</v>
-      </c>
-      <c r="D35" s="2">
-        <v>8.2087863636055095E-2</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.16918854497144001</v>
-      </c>
-      <c r="F35" s="18">
-        <v>1.12598893232844</v>
-      </c>
-      <c r="G35" s="2">
-        <v>3.0332917781812501E-2</v>
-      </c>
-      <c r="H35" s="2">
-        <v>9.6108940758850694E-2</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.308020980467898</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.43476706690277001</v>
-      </c>
-      <c r="K35" s="18">
-        <v>1.1029626861597099</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="21">
-        <v>1.8640760059437701E-3</v>
-      </c>
-      <c r="C36" s="21">
-        <v>1.66142233370964E-2</v>
-      </c>
-      <c r="D36" s="21">
-        <v>2.0406192508141501E-2</v>
-      </c>
-      <c r="E36" s="21">
-        <v>0.118312924242086</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0.75885057471264405</v>
-      </c>
-      <c r="G36" s="21">
-        <v>2.6118541173567801E-2</v>
-      </c>
-      <c r="H36" s="21">
-        <v>0.109663627828297</v>
-      </c>
-      <c r="I36" s="21">
-        <v>0.14539788188889299</v>
-      </c>
-      <c r="J36" s="21">
-        <v>0.36649582327019697</v>
-      </c>
-      <c r="K36" s="22">
-        <v>1.0358244598492401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:K37">
+  <sortState ref="A3:F37">
     <sortCondition descending="1" ref="E2"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:F36">
+  <conditionalFormatting sqref="G3:K36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6764,7 +6701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:K36">
+  <conditionalFormatting sqref="B3:F36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6777,6 +6714,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Résultats Couleurs.xlsx
+++ b/Résultats Couleurs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\enysb\Desktop\Projet-SBT13-Addictologie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilio\Documents\GitHub\Projet-SBT13-Addictologie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Moyenne" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,8 +658,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="74">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1227,19 +1233,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -1534,8 +1527,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -1545,16 +1555,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1563,13 +1595,11 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1617,7 +1647,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1672,108 +1702,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2094,13 +2126,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27"/>
       <c r="B1" s="10" t="s">
         <v>79</v>
@@ -2118,7 +2150,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2170,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -2158,7 +2190,7 @@
         <v>21.7793103448276</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2210,7 @@
         <v>1.38637408568443</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2230,7 @@
         <v>3.1876847290640402</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2218,7 +2250,7 @@
         <v>0.15862068965517201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>5</v>
       </c>
@@ -2238,7 +2270,7 @@
         <v>4.8275862068965503E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2290,7 @@
         <v>0.24827586206896601</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
@@ -2278,7 +2310,7 @@
         <v>0.41379310344827602</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>8</v>
       </c>
@@ -2297,8 +2329,9 @@
       <c r="F10" s="18">
         <v>7.5862068965517199E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="107"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
@@ -2317,8 +2350,9 @@
       <c r="F11" s="18">
         <v>5.5172413793103399E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="105"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>10</v>
       </c>
@@ -2334,12 +2368,13 @@
       <c r="E12" s="37">
         <v>2.2699773233787401</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>2.57931034482759</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39" t="s">
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="8">
@@ -2354,12 +2389,13 @@
       <c r="E13" s="9">
         <v>9.8256577739053306</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="9">
         <v>11.652113283772101</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="G13" s="104"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="8">
@@ -2374,12 +2410,13 @@
       <c r="E14" s="9">
         <v>2.5241225027560401</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="9">
         <v>2.5241379310344798</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39" t="s">
+      <c r="G14" s="108"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="8">
@@ -2394,53 +2431,55 @@
       <c r="E15" s="9">
         <v>1.7671589158721599</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="9">
         <v>1.99400206189895</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="86" t="s">
+      <c r="G15" s="104"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="60">
         <v>0.74350256973537698</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="54">
         <v>1.6948521648533199</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="54">
         <v>2.41310497448193</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="54">
         <v>2.12067455886416</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="54">
         <v>2.3086002088190298</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="87" t="s">
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="60">
         <v>6.9048790216909101E-2</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="54">
         <v>0.13913823674359799</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="54">
         <v>0.106716756112105</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="54">
         <v>0.58207630878438299</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="55">
         <v>1.3448275862068999</v>
       </c>
-      <c r="G17" s="102"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="88" t="s">
+      <c r="G17" s="106"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -2455,13 +2494,13 @@
       <c r="E18" s="2">
         <v>0.82963620230700996</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="57">
         <v>1.4344827586206901</v>
       </c>
-      <c r="G18" s="100"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
+      <c r="G18" s="95"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -2476,13 +2515,13 @@
       <c r="E19" s="2">
         <v>0.29636202307009801</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="57">
         <v>0.90344827586206899</v>
       </c>
-      <c r="G19" s="101"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
+      <c r="G19" s="96"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -2497,13 +2536,13 @@
       <c r="E20" s="2">
         <v>0.62555456965394896</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="57">
         <v>1.31034482758621</v>
       </c>
-      <c r="G20" s="101"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
+      <c r="G20" s="96"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="85" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -2518,13 +2557,13 @@
       <c r="E21" s="2">
         <v>0.754214729370009</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <v>1.2896551724137899</v>
       </c>
-      <c r="G21" s="101"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="89" t="s">
+      <c r="G21" s="96"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="3">
@@ -2539,34 +2578,34 @@
       <c r="E22" s="4">
         <v>1.0070984915705401</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="59">
         <v>1.6482758620689699</v>
       </c>
-      <c r="G22" s="104"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="91" t="s">
+      <c r="G22" s="99"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="60">
         <v>4.6647443944797702E-2</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="54">
         <v>8.9555541054596205E-2</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="54">
         <v>4.5696933132227301E-2</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="54">
         <v>0.44631765749778202</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="55">
         <v>1.2068965517241399</v>
       </c>
-      <c r="G23" s="102"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="92" t="s">
+      <c r="G23" s="97"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -2581,13 +2620,13 @@
       <c r="E24" s="2">
         <v>0.51020408163265296</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="57">
         <v>1.36551724137931</v>
       </c>
-      <c r="G24" s="100"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="92" t="s">
+      <c r="G24" s="95"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -2602,13 +2641,13 @@
       <c r="E25" s="2">
         <v>0.247559893522626</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="57">
         <v>1.2965517241379301</v>
       </c>
-      <c r="G25" s="101"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="92" t="s">
+      <c r="G25" s="96"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -2623,13 +2662,13 @@
       <c r="E26" s="2">
         <v>0.648624667258208</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="57">
         <v>1.57931034482759</v>
       </c>
-      <c r="G26" s="100"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="92" t="s">
+      <c r="G26" s="95"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="89" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1">
@@ -2644,13 +2683,13 @@
       <c r="E27" s="2">
         <v>0.22015076824771901</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="57">
         <v>1.2</v>
       </c>
-      <c r="G27" s="101"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="92" t="s">
+      <c r="G27" s="96"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1">
@@ -2665,13 +2704,13 @@
       <c r="E28" s="2">
         <v>0.443858890736955</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="57">
         <v>1.42068965517241</v>
       </c>
-      <c r="G28" s="100"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="92" t="s">
+      <c r="G28" s="95"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="89" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1">
@@ -2686,13 +2725,13 @@
       <c r="E29" s="2">
         <v>0.34977533817023798</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="57">
         <v>1.11034482758621</v>
       </c>
-      <c r="G29" s="100"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="93" t="s">
+      <c r="G29" s="95"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3">
@@ -2707,13 +2746,13 @@
       <c r="E30" s="4">
         <v>0.23528373067905101</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="59">
         <v>1.2</v>
       </c>
-      <c r="G30" s="105"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="90" t="s">
+      <c r="G30" s="100"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -2728,13 +2767,13 @@
       <c r="E31" s="2">
         <v>0.71588370570876403</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="57">
         <v>1.4421455938697301</v>
       </c>
-      <c r="G31" s="102"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="64" t="s">
+      <c r="G31" s="97"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1">
@@ -2749,13 +2788,13 @@
       <c r="E32" s="2">
         <v>0.118312924242086</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="57">
         <v>0.75885057471264405</v>
       </c>
-      <c r="G32" s="101"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="64" t="s">
+      <c r="G32" s="96"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1">
@@ -2770,13 +2809,13 @@
       <c r="E33" s="2">
         <v>0.73065774099221803</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="57">
         <v>1.6358620689655201</v>
       </c>
-      <c r="G33" s="100"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="65" t="s">
+      <c r="G33" s="95"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="62" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1">
@@ -2791,34 +2830,34 @@
       <c r="E34" s="2">
         <v>0.40478572249290701</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="57">
         <v>1.3798467432950201</v>
       </c>
-      <c r="G34" s="105"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="66" t="s">
+      <c r="G34" s="100"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="54">
         <v>7.3865745253669707E-2</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="54">
         <v>0.30348888513007899</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="54">
         <v>0.32444253627509401</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="54">
         <v>1.0084090922895499</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="55">
         <v>1.85291187739464</v>
       </c>
-      <c r="G35" s="102"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="67" t="s">
+      <c r="G35" s="97"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -2833,13 +2872,13 @@
       <c r="E36" s="2">
         <v>0.50690612204947705</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="57">
         <v>1.51870279146141</v>
       </c>
-      <c r="G36" s="100"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
+      <c r="G36" s="95"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -2854,13 +2893,13 @@
       <c r="E37" s="2">
         <v>0.58480948676943101</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="57">
         <v>1.66379310344828</v>
       </c>
-      <c r="G37" s="100"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="67" t="s">
+      <c r="G37" s="95"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="64" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -2875,13 +2914,13 @@
       <c r="E38" s="2">
         <v>0.90833637753305396</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="57">
         <v>1.61787082649152</v>
       </c>
-      <c r="G38" s="100"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="68" t="s">
+      <c r="G38" s="95"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="65" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="4">
@@ -2896,34 +2935,34 @@
       <c r="E39" s="4">
         <v>0.51446320442187099</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="59">
         <v>1.6703065134099599</v>
       </c>
-      <c r="G39" s="103"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="69" t="s">
+      <c r="G39" s="98"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="54">
         <v>6.6798780945196201E-2</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="54">
         <v>0.235171285248092</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="54">
         <v>0.271987989002347</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40" s="54">
         <v>0.67306517891599704</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="55">
         <v>1.3282427725531201</v>
       </c>
-      <c r="G40" s="102"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="70" t="s">
+      <c r="G40" s="97"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="67" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -2938,13 +2977,13 @@
       <c r="E41" s="2">
         <v>0.70796409820737805</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="57">
         <v>1.3556712444643499</v>
       </c>
-      <c r="G41" s="100"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="70" t="s">
+      <c r="G41" s="95"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -2959,13 +2998,13 @@
       <c r="E42" s="2">
         <v>0.87801692439655898</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="57">
         <v>1.7280188585361</v>
       </c>
-      <c r="G42" s="100"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="71" t="s">
+      <c r="G42" s="95"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="68" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="4">
@@ -2980,118 +3019,118 @@
       <c r="E43" s="4">
         <v>0.76665644944733302</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="59">
         <v>1.63846071552968</v>
       </c>
-      <c r="G43" s="103"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="72" t="s">
+      <c r="G43" s="98"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="73">
+      <c r="B44" s="70">
         <v>4.0430612147262096E-3</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="71">
         <v>1.9637046227989698E-2</v>
       </c>
-      <c r="D44" s="74">
+      <c r="D44" s="71">
         <v>8.2087863636055095E-2</v>
       </c>
-      <c r="E44" s="74">
+      <c r="E44" s="71">
         <v>0.16918854497144001</v>
       </c>
-      <c r="F44" s="75">
+      <c r="F44" s="72">
         <v>1.12598893232844</v>
       </c>
-      <c r="G44" s="106"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="76" t="s">
+      <c r="G44" s="101"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="77">
+      <c r="B45" s="74">
         <v>3.1764185908168097E-2</v>
       </c>
-      <c r="C45" s="78">
+      <c r="C45" s="75">
         <v>0.153978031513712</v>
       </c>
-      <c r="D45" s="78">
+      <c r="D45" s="75">
         <v>0.30436247304422498</v>
       </c>
-      <c r="E45" s="78">
+      <c r="E45" s="75">
         <v>0.59368522020444203</v>
       </c>
-      <c r="F45" s="79">
+      <c r="F45" s="76">
         <v>1.4599748160097801</v>
       </c>
-      <c r="G45" s="101"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="76" t="s">
+      <c r="G45" s="96"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="77">
+      <c r="B46" s="74">
         <v>4.0555478256312696E-3</v>
       </c>
-      <c r="C46" s="78">
+      <c r="C46" s="75">
         <v>2.0979101593437102E-2</v>
       </c>
-      <c r="D46" s="78">
+      <c r="D46" s="75">
         <v>0.114897525504862</v>
       </c>
-      <c r="E46" s="78">
+      <c r="E46" s="75">
         <v>0.23782739737142</v>
       </c>
-      <c r="F46" s="79">
+      <c r="F46" s="76">
         <v>1.2087443505631099</v>
       </c>
-      <c r="G46" s="101"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="76" t="s">
+      <c r="G46" s="96"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="77">
+      <c r="B47" s="74">
         <v>6.8207717849826897E-3</v>
       </c>
-      <c r="C47" s="78">
+      <c r="C47" s="75">
         <v>3.8897703867956802E-2</v>
       </c>
-      <c r="D47" s="78">
+      <c r="D47" s="75">
         <v>0.172816603405686</v>
       </c>
-      <c r="E47" s="78">
+      <c r="E47" s="75">
         <v>0.26783280077156402</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="76">
         <v>1.13363038344259</v>
       </c>
-      <c r="G47" s="101"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="80" t="s">
+      <c r="G47" s="96"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="81">
+      <c r="B48" s="78">
         <v>3.5627338586490899E-2</v>
       </c>
-      <c r="C48" s="82">
+      <c r="C48" s="79">
         <v>0.18349601563845599</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="79">
         <v>0.29523713359667098</v>
       </c>
-      <c r="E48" s="82">
+      <c r="E48" s="79">
         <v>0.74115584581432403</v>
       </c>
-      <c r="F48" s="83">
+      <c r="F48" s="80">
         <v>1.55100595031973</v>
       </c>
-      <c r="G48" s="103"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="84" t="s">
+      <c r="G48" s="98"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="81" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
@@ -3109,10 +3148,10 @@
       <c r="F49" s="18">
         <v>1.72092562027176</v>
       </c>
-      <c r="G49" s="102"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="85" t="s">
+      <c r="G49" s="97"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="82" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="21">
@@ -3130,9 +3169,9 @@
       <c r="F50" s="22">
         <v>1.88088584294299</v>
       </c>
-      <c r="G50" s="103"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="98"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>49</v>
       </c>
@@ -3151,9 +3190,9 @@
       <c r="F51" s="25">
         <v>1.41913955104496</v>
       </c>
-      <c r="G51" s="107"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="102"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>50</v>
       </c>
@@ -3173,7 +3212,7 @@
         <v>2.0584328788223898</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>51</v>
       </c>
@@ -3193,7 +3232,7 @@
         <v>1.50887107639411</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>52</v>
       </c>
@@ -3213,7 +3252,7 @@
         <v>0.47019983137544802</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>53</v>
       </c>
@@ -3233,7 +3272,7 @@
         <v>0.232418923817996</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>54</v>
       </c>
@@ -3253,7 +3292,7 @@
         <v>0.51949579484882902</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>55</v>
       </c>
@@ -3273,7 +3312,7 @@
         <v>0.61401435238403901</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>56</v>
       </c>
@@ -3293,7 +3332,7 @@
         <v>0.92823619797835999</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>57</v>
       </c>
@@ -3309,11 +3348,12 @@
       <c r="E59" s="15">
         <v>2.7352042907695799</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="15">
         <v>3.9520305866032102</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="104"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>58</v>
       </c>
@@ -3329,11 +3369,12 @@
       <c r="E60" s="2">
         <v>2.3625735810981601</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="2">
         <v>3.59190777847695</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="104"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>59</v>
       </c>
@@ -3349,11 +3390,12 @@
       <c r="E61" s="2">
         <v>2.4808123942809699</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="2">
         <v>3.64093874669484</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="104"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>60</v>
       </c>
@@ -3369,11 +3411,12 @@
       <c r="E62" s="2">
         <v>2.3461794897216199</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="2">
         <v>3.5517710809500702</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="104"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>61</v>
       </c>
@@ -3389,11 +3432,12 @@
       <c r="E63" s="21">
         <v>2.7867570103743402</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="21">
         <v>4.2737772775577403</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="104"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>62</v>
       </c>
@@ -3413,7 +3457,7 @@
         <v>1.3268553363834299</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>63</v>
       </c>
@@ -3433,7 +3477,7 @@
         <v>1.27743959749325</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>64</v>
       </c>
@@ -3453,7 +3497,7 @@
         <v>1.63510897049127</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>65</v>
       </c>
@@ -3473,7 +3517,7 @@
         <v>1.62640952061891</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>66</v>
       </c>
@@ -3493,7 +3537,7 @@
         <v>2.0417422907820701</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
@@ -3513,7 +3557,7 @@
         <v>0.20689655172413801</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>68</v>
       </c>
@@ -3533,7 +3577,7 @@
         <v>0.44137931034482802</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>69</v>
       </c>
@@ -3553,7 +3597,7 @@
         <v>0.18620689655172401</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>70</v>
       </c>
@@ -3573,7 +3617,7 @@
         <v>4.8275862068965503E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>71</v>
       </c>
@@ -3593,7 +3637,7 @@
         <v>0.43448275862069002</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>72</v>
       </c>
@@ -3613,7 +3657,7 @@
         <v>8.2758620689655199E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>73</v>
       </c>
@@ -3633,7 +3677,7 @@
         <v>3.4482758620689703E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>74</v>
       </c>
@@ -3653,7 +3697,7 @@
         <v>0.15862068965517201</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>75</v>
       </c>
@@ -3673,8 +3717,8 @@
         <v>7.5862068965517199E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="50" t="s">
+    <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="49" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="3">
@@ -3689,12 +3733,12 @@
       <c r="E78" s="4">
         <v>1.2285804375748299</v>
       </c>
-      <c r="F78" s="51">
+      <c r="F78" s="50">
         <v>1.5930991714945999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="39" t="s">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="38" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="8">
@@ -3709,31 +3753,31 @@
       <c r="E79" s="9">
         <v>0.11794506060368699</v>
       </c>
-      <c r="F79" s="40">
+      <c r="F79" s="39">
         <v>0.183777654227708</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="41" t="s">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="42">
+      <c r="B80" s="41">
         <v>0.40866789560441102</v>
       </c>
-      <c r="C80" s="43">
+      <c r="C80" s="42">
         <v>0.36205043415499699</v>
       </c>
-      <c r="D80" s="43">
+      <c r="D80" s="42">
         <v>0.29494032839595902</v>
       </c>
-      <c r="E80" s="43">
+      <c r="E80" s="42">
         <v>0.35626323851265801</v>
       </c>
-      <c r="F80" s="44">
+      <c r="F80" s="43">
         <v>0.29059504529693903</v>
       </c>
     </row>
-    <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B17:F51">
     <cfRule type="colorScale" priority="20">
@@ -3973,11 +4017,11 @@
       <selection activeCell="A44" sqref="A44:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54"/>
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53"/>
+      <c r="B1" s="52" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="30" t="s">
@@ -3993,7 +4037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4057,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -4033,7 +4077,7 @@
         <v>2.4137021055644201</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
@@ -4053,7 +4097,7 @@
         <v>0.48515222547854903</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4117,8 @@
         <v>1.51919746675601</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="15">
@@ -4093,8 +4137,8 @@
         <v>0.36658828838368102</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -4113,8 +4157,8 @@
         <v>0.215091533576038</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -4133,8 +4177,8 @@
         <v>0.433510131926301</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -4153,8 +4197,8 @@
         <v>0.49421945890790098</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -4173,7 +4217,7 @@
         <v>0.26569506907694201</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
@@ -4193,8 +4237,8 @@
         <v>0.22910788169755</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="15">
@@ -4213,8 +4257,8 @@
         <v>1.89175464375904</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -4233,8 +4277,8 @@
         <v>7.7753777800886699</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -4253,8 +4297,8 @@
         <v>1.3492938411375801</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -4273,8 +4317,8 @@
         <v>1.27626037705872</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
@@ -4293,28 +4337,28 @@
         <v>1.08670804539001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="54">
         <v>0.296815111932903</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="54">
         <v>0.35156014622382797</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="54">
         <v>0.327901484633631</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="54">
         <v>0.73491818845892498</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="55">
         <v>1.0565885246134501</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -4329,12 +4373,12 @@
       <c r="E18" s="2">
         <v>0.80588981460779396</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="57">
         <v>1.03288829867895</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
@@ -4349,12 +4393,12 @@
       <c r="E19" s="2">
         <v>0.61292697032708598</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="57">
         <v>1.0496304768493701</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
@@ -4369,12 +4413,12 @@
       <c r="E20" s="2">
         <v>0.79182323748817696</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="57">
         <v>1.10878588116381</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
@@ -4389,12 +4433,12 @@
       <c r="E21" s="2">
         <v>0.90925646435487595</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="57">
         <v>1.1360093491601699</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="60" t="s">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4">
@@ -4409,32 +4453,32 @@
       <c r="E22" s="4">
         <v>0.82583894158069004</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="59">
         <v>1.02422758486279</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="56">
+      <c r="B23" s="54">
         <v>0.228012622591278</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="54">
         <v>0.27973053581292001</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="54">
         <v>0.238861843057846</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E23" s="54">
         <v>0.73874156009377401</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="55">
         <v>1.15407822599863</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -4449,12 +4493,12 @@
       <c r="E24" s="2">
         <v>0.66612573358907101</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="57">
         <v>1.03958988376993</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
@@ -4469,12 +4513,12 @@
       <c r="E25" s="2">
         <v>0.51782677938883104</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="57">
         <v>1.0146437383184399</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -4489,12 +4533,12 @@
       <c r="E26" s="2">
         <v>0.70701594932922596</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="57">
         <v>1.0779930266552</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="56" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
@@ -4509,12 +4553,12 @@
       <c r="E27" s="2">
         <v>0.46108174268874302</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="57">
         <v>1.0314498964510499</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="58" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
@@ -4529,12 +4573,12 @@
       <c r="E28" s="2">
         <v>0.65966427466767497</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="57">
         <v>1.0650310736027699</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="58" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="56" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
@@ -4549,12 +4593,12 @@
       <c r="E29" s="2">
         <v>0.64202542115731098</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="57">
         <v>1.1433214368872699</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="60" t="s">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="58" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="4">
@@ -4569,32 +4613,32 @@
       <c r="E30" s="4">
         <v>0.46800081681044498</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="59">
         <v>1.0314498964510499</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="56">
+      <c r="B31" s="54">
         <v>0.19744014834564499</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="54">
         <v>0.35149727688587901</v>
       </c>
-      <c r="D31" s="56">
+      <c r="D31" s="54">
         <v>0.50816797607312802</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="54">
         <v>0.76662657683078606</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="55">
         <v>0.99108413618944902</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="58" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
@@ -4609,12 +4653,12 @@
       <c r="E32" s="2">
         <v>0.36649582327019697</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="57">
         <v>1.0358244598492401</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="58" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
@@ -4629,12 +4673,12 @@
       <c r="E33" s="2">
         <v>0.77136015768514599</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="57">
         <v>1.0442086225987499</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="60" t="s">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="4">
@@ -4649,32 +4693,32 @@
       <c r="E34" s="4">
         <v>0.63672170181417798</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="59">
         <v>1.06042895968757</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="54">
         <v>0.243955127564431</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="54">
         <v>0.44047520353507302</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="54">
         <v>0.52841164137711005</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="54">
         <v>0.80005598634122999</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="55">
         <v>1.03553133142206</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="58" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -4689,12 +4733,12 @@
       <c r="E36" s="2">
         <v>0.70380690536591195</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="57">
         <v>1.0916466513700001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="58" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="56" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -4709,12 +4753,12 @@
       <c r="E37" s="2">
         <v>0.76320960014620498</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="57">
         <v>1.03964682843945</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="58" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -4729,12 +4773,12 @@
       <c r="E38" s="2">
         <v>0.82804750440528396</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="57">
         <v>1.0949607020960199</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="60" t="s">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="4">
@@ -4749,32 +4793,32 @@
       <c r="E39" s="4">
         <v>0.67821418440548498</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="59">
         <v>1.0457597319924401</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="56">
+      <c r="B40" s="54">
         <v>0.240541762927723</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="54">
         <v>0.421179793531262</v>
       </c>
-      <c r="D40" s="56">
+      <c r="D40" s="54">
         <v>0.53049598020740196</v>
       </c>
-      <c r="E40" s="56">
+      <c r="E40" s="54">
         <v>0.80323623541601297</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="55">
         <v>1.0418871916843</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="56" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -4789,12 +4833,12 @@
       <c r="E41" s="2">
         <v>0.73234531865037</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="57">
         <v>1.04623899260191</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -4809,12 +4853,12 @@
       <c r="E42" s="2">
         <v>0.74875061616457805</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="57">
         <v>1.0108141264380801</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="4">
@@ -4829,32 +4873,32 @@
       <c r="E43" s="4">
         <v>0.82069704567873503</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="59">
         <v>1.0732163923920901</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="54">
         <v>3.0332917781812501E-2</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="54">
         <v>9.6108940758850694E-2</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="54">
         <v>0.308020980467898</v>
       </c>
-      <c r="E44" s="56">
+      <c r="E44" s="54">
         <v>0.43476706690277001</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="55">
         <v>1.1029626861597099</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="58" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="56" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
@@ -4869,12 +4913,12 @@
       <c r="E45" s="2">
         <v>0.72633761344522696</v>
       </c>
-      <c r="F45" s="59">
+      <c r="F45" s="57">
         <v>1.08025624222467</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="58" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
@@ -4889,12 +4933,12 @@
       <c r="E46" s="2">
         <v>0.49900387153713399</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="57">
         <v>1.02456481944649</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="58" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
@@ -4909,12 +4953,12 @@
       <c r="E47" s="2">
         <v>0.54003628383493596</v>
       </c>
-      <c r="F47" s="59">
+      <c r="F47" s="57">
         <v>1.0726652258260301</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="60" t="s">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="58" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="4">
@@ -4929,12 +4973,12 @@
       <c r="E48" s="4">
         <v>0.79162489819044402</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="59">
         <v>1.0252391035189099</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
@@ -4953,7 +4997,7 @@
         <v>1.0309509770354</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>48</v>
       </c>
@@ -4973,7 +5017,7 @@
         <v>1.0426032165198</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>49</v>
       </c>
@@ -4993,8 +5037,8 @@
         <v>0.98283538078220201</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
+    <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="15">
@@ -5013,8 +5057,8 @@
         <v>1.1274125427222099</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2">
@@ -5033,8 +5077,8 @@
         <v>1.1316248097237001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="2">
@@ -5053,8 +5097,8 @@
         <v>0.89037040017660096</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="49" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2">
@@ -5073,8 +5117,8 @@
         <v>0.72269355252118295</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
@@ -5093,8 +5137,8 @@
         <v>0.86368033706871605</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="2">
@@ -5113,7 +5157,7 @@
         <v>0.901803204719406</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>56</v>
       </c>
@@ -5133,8 +5177,8 @@
         <v>0.99028672428514697</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
+    <row r="59" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="15">
@@ -5153,8 +5197,8 @@
         <v>2.1306682028880402</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2">
@@ -5173,8 +5217,8 @@
         <v>2.1085403362256301</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="2">
@@ -5193,8 +5237,8 @@
         <v>2.03468212087376</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="2">
@@ -5213,7 +5257,7 @@
         <v>2.1796245472718199</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>61</v>
       </c>
@@ -5233,8 +5277,8 @@
         <v>2.1916574786426399</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="15">
@@ -5253,8 +5297,8 @@
         <v>0.66417370376141904</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="2">
@@ -5273,8 +5317,8 @@
         <v>0.62829910817759405</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="49" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2">
@@ -5293,8 +5337,8 @@
         <v>0.68006290159266802</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
@@ -5313,7 +5357,7 @@
         <v>0.67881507783933903</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>66</v>
       </c>
@@ -5333,8 +5377,8 @@
         <v>0.68871619808363604</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
+    <row r="69" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="15">
@@ -5353,8 +5397,8 @@
         <v>0.40648479068406901</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="49" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="2">
@@ -5373,8 +5417,8 @@
         <v>0.49827287912244</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="49" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="2">
@@ -5393,7 +5437,7 @@
         <v>0.390622844821641</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>70</v>
       </c>
@@ -5413,8 +5457,8 @@
         <v>0.215091533576038</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="48" t="s">
+    <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="15">
@@ -5433,8 +5477,8 @@
         <v>0.497407069816512</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="48" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2">
@@ -5453,8 +5497,8 @@
         <v>0.276472026811385</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="49" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="2">
@@ -5473,8 +5517,8 @@
         <v>0.18309807266751699</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="49" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="2">
@@ -5493,7 +5537,7 @@
         <v>0.36658828838368102</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
         <v>75</v>
       </c>
@@ -5513,7 +5557,7 @@
         <v>0.26569506907694201</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>76</v>
       </c>
@@ -5533,7 +5577,7 @@
         <v>1.32548303167043</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
         <v>77</v>
       </c>
@@ -5553,7 +5597,7 @@
         <v>0.37516193073187698</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>78</v>
       </c>
@@ -5573,7 +5617,7 @@
         <v>0.42499638547760099</v>
       </c>
     </row>
-    <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A3:F3">
     <cfRule type="colorScale" priority="21">
@@ -5787,28 +5831,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>79</v>
       </c>
@@ -5832,858 +5876,858 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="62">
-        <v>6.9048790216909101E-2</v>
-      </c>
-      <c r="C3" s="56">
-        <v>0.13913823674359799</v>
-      </c>
-      <c r="D3" s="56">
-        <v>0.106716756112105</v>
-      </c>
-      <c r="E3" s="56">
-        <v>0.58207630878438299</v>
-      </c>
-      <c r="F3" s="56">
-        <v>1.3448275862068999</v>
-      </c>
-      <c r="G3" s="102"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="60">
+        <v>0.21612985133670301</v>
+      </c>
+      <c r="C3" s="54">
+        <v>0.70304373346806803</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0.91404534840479701</v>
+      </c>
+      <c r="E3" s="54">
+        <v>1.52464118333995</v>
+      </c>
+      <c r="F3" s="54">
+        <v>1.88088584294299</v>
+      </c>
+      <c r="G3" s="97"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
-        <v>16</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="109" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="1">
-        <v>7.3958958485442899E-2</v>
+        <v>0.11380830253204299</v>
       </c>
       <c r="C4" s="2">
-        <v>0.197578016526267</v>
+        <v>0.36816281210843899</v>
       </c>
       <c r="D4" s="2">
-        <v>0.25387954680977898</v>
+        <v>0.44809605674618402</v>
       </c>
       <c r="E4" s="2">
-        <v>0.82963620230700996</v>
+        <v>1.0982740502191399</v>
       </c>
       <c r="F4" s="2">
-        <v>1.4344827586206901</v>
-      </c>
-      <c r="G4" s="100"/>
+        <v>1.72092562027176</v>
+      </c>
+      <c r="G4" s="95"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
-        <v>17</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="1">
-        <v>2.6301463108938699E-2</v>
+        <v>7.3865745253669707E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>9.5399421987320598E-2</v>
+        <v>0.30348888513007899</v>
       </c>
       <c r="D5" s="2">
-        <v>0.139816656728285</v>
+        <v>0.32444253627509401</v>
       </c>
       <c r="E5" s="2">
-        <v>0.29636202307009801</v>
+        <v>1.0084090922895499</v>
       </c>
       <c r="F5" s="2">
-        <v>0.90344827586206899</v>
-      </c>
-      <c r="G5" s="101"/>
+        <v>1.85291187739464</v>
+      </c>
+      <c r="G5" s="95"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
-        <v>18</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>2.1066303649878201E-2</v>
+        <v>5.7913104453228503E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>0.19443600462031499</v>
+        <v>0.35452107511972802</v>
       </c>
       <c r="D6" s="2">
-        <v>0.31907771814748598</v>
+        <v>0.53960930232558102</v>
       </c>
       <c r="E6" s="2">
-        <v>0.62555456965394896</v>
+        <v>1.0070984915705401</v>
       </c>
       <c r="F6" s="2">
-        <v>1.31034482758621</v>
-      </c>
-      <c r="G6" s="101"/>
+        <v>1.6482758620689699</v>
+      </c>
+      <c r="G6" s="95"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
-        <v>19</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="64" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="1">
-        <v>1.89481593569415E-2</v>
+        <v>8.1305601956596696E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>0.18780798092899501</v>
+        <v>0.31239982647339198</v>
       </c>
       <c r="D7" s="2">
-        <v>0.32949632279864799</v>
+        <v>0.46727701962120599</v>
       </c>
       <c r="E7" s="2">
-        <v>0.754214729370009</v>
+        <v>0.90833637753305396</v>
       </c>
       <c r="F7" s="2">
-        <v>1.2896551724137899</v>
-      </c>
-      <c r="G7" s="101"/>
+        <v>1.61787082649152</v>
+      </c>
+      <c r="G7" s="95"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="89" t="s">
-        <v>20</v>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="3">
-        <v>5.7913104453228503E-2</v>
+        <v>3.0468769544025699E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>0.35452107511972802</v>
+        <v>0.18975739853002299</v>
       </c>
       <c r="D8" s="4">
-        <v>0.53960930232558102</v>
+        <v>0.35704187182326702</v>
       </c>
       <c r="E8" s="4">
-        <v>1.0070984915705401</v>
+        <v>0.87801692439655898</v>
       </c>
       <c r="F8" s="4">
-        <v>1.6482758620689699</v>
-      </c>
-      <c r="G8" s="104"/>
+        <v>1.7280188585361</v>
+      </c>
+      <c r="G8" s="99"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="62">
-        <v>4.6647443944797702E-2</v>
-      </c>
-      <c r="C9" s="56">
-        <v>8.9555541054596205E-2</v>
-      </c>
-      <c r="D9" s="56">
-        <v>4.5696933132227301E-2</v>
-      </c>
-      <c r="E9" s="56">
-        <v>0.44631765749778202</v>
-      </c>
-      <c r="F9" s="56">
-        <v>1.2068965517241399</v>
-      </c>
-      <c r="G9" s="102"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="60">
+        <v>7.3958958485442899E-2</v>
+      </c>
+      <c r="C9" s="54">
+        <v>0.197578016526267</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0.25387954680977898</v>
+      </c>
+      <c r="E9" s="54">
+        <v>0.82963620230700996</v>
+      </c>
+      <c r="F9" s="54">
+        <v>1.4344827586206901</v>
+      </c>
+      <c r="G9" s="97"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="92" t="s">
-        <v>22</v>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="1">
-        <v>3.1268373110339698E-2</v>
+        <v>2.7803074734955899E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>9.1106200392654602E-2</v>
+        <v>0.180912082566629</v>
       </c>
       <c r="D10" s="2">
-        <v>7.0969934640522897E-2</v>
+        <v>0.311941530708366</v>
       </c>
       <c r="E10" s="2">
-        <v>0.51020408163265296</v>
+        <v>0.76665644944733302</v>
       </c>
       <c r="F10" s="2">
-        <v>1.36551724137931</v>
-      </c>
-      <c r="G10" s="100"/>
+        <v>1.63846071552968</v>
+      </c>
+      <c r="G10" s="95"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
-        <v>23</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>1.06987610842757E-2</v>
+        <v>1.89481593569415E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>3.6695692082222099E-2</v>
+        <v>0.18780798092899501</v>
       </c>
       <c r="D11" s="2">
-        <v>2.9649472096530901E-2</v>
+        <v>0.32949632279864799</v>
       </c>
       <c r="E11" s="2">
-        <v>0.247559893522626</v>
+        <v>0.754214729370009</v>
       </c>
       <c r="F11" s="2">
-        <v>1.2965517241379301</v>
-      </c>
-      <c r="G11" s="101"/>
+        <v>1.2896551724137899</v>
+      </c>
+      <c r="G11" s="96"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.6852231481144E-2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.16146572915746299</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.22736249371543499</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.648624667258208</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.57931034482759</v>
-      </c>
-      <c r="G12" s="100"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="74">
+        <v>3.5627338586490899E-2</v>
+      </c>
+      <c r="C12" s="75">
+        <v>0.18349601563845599</v>
+      </c>
+      <c r="D12" s="75">
+        <v>0.29523713359667098</v>
+      </c>
+      <c r="E12" s="75">
+        <v>0.74115584581432403</v>
+      </c>
+      <c r="F12" s="75">
+        <v>1.55100595031973</v>
+      </c>
+      <c r="G12" s="95"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1">
-        <v>4.6667105564952996E-3</v>
+        <v>2.6129717757091199E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>2.16000909740304E-2</v>
+        <v>0.22815651903929701</v>
       </c>
       <c r="D13" s="2">
-        <v>2.7776927192657501E-2</v>
+        <v>0.590646413057208</v>
       </c>
       <c r="E13" s="2">
-        <v>0.22015076824771901</v>
+        <v>0.73065774099221803</v>
       </c>
       <c r="F13" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G13" s="101"/>
+        <v>1.6358620689655201</v>
+      </c>
+      <c r="G13" s="95"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
-        <v>1.9715653983770301E-2</v>
+        <v>4.0836890734731901E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>6.1995005365130001E-2</v>
+        <v>0.17308929822470201</v>
       </c>
       <c r="D14" s="2">
-        <v>7.2769560027986999E-2</v>
+        <v>0.28052569319735698</v>
       </c>
       <c r="E14" s="2">
-        <v>0.443858890736955</v>
+        <v>0.71588370570876403</v>
       </c>
       <c r="F14" s="2">
-        <v>1.42068965517241</v>
-      </c>
-      <c r="G14" s="100"/>
+        <v>1.4421455938697301</v>
+      </c>
+      <c r="G14" s="95"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="92" t="s">
-        <v>27</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="1">
-        <v>1.25717629149317E-2</v>
+        <v>4.2389097386598601E-2</v>
       </c>
       <c r="C15" s="2">
-        <v>7.1088715422901599E-2</v>
+        <v>0.18148099314109301</v>
       </c>
       <c r="D15" s="2">
-        <v>0.11644927357286899</v>
+        <v>0.26391594326356699</v>
       </c>
       <c r="E15" s="2">
-        <v>0.34977533817023798</v>
+        <v>0.70796409820737805</v>
       </c>
       <c r="F15" s="2">
-        <v>1.11034482758621</v>
-      </c>
-      <c r="G15" s="100"/>
+        <v>1.3556712444643499</v>
+      </c>
+      <c r="G15" s="95"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="93" t="s">
-        <v>28</v>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="68" t="s">
+        <v>38</v>
       </c>
       <c r="B16" s="3">
-        <v>1.44561776869546E-2</v>
+        <v>6.6798780945196201E-2</v>
       </c>
       <c r="C16" s="4">
-        <v>3.4600549015623101E-2</v>
+        <v>0.235171285248092</v>
       </c>
       <c r="D16" s="4">
-        <v>2.28465242622546E-2</v>
+        <v>0.271987989002347</v>
       </c>
       <c r="E16" s="4">
-        <v>0.23528373067905101</v>
+        <v>0.67306517891599704</v>
       </c>
       <c r="F16" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G16" s="105"/>
+        <v>1.3282427725531201</v>
+      </c>
+      <c r="G16" s="98"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="62">
-        <v>4.0836890734731901E-2</v>
-      </c>
-      <c r="C17" s="56">
-        <v>0.17308929822470201</v>
-      </c>
-      <c r="D17" s="56">
-        <v>0.28052569319735698</v>
-      </c>
-      <c r="E17" s="56">
-        <v>0.71588370570876403</v>
-      </c>
-      <c r="F17" s="56">
-        <v>1.4421455938697301</v>
-      </c>
-      <c r="G17" s="102"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="60">
+        <v>2.6852231481144E-2</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.16146572915746299</v>
+      </c>
+      <c r="D17" s="54">
+        <v>0.22736249371543499</v>
+      </c>
+      <c r="E17" s="54">
+        <v>0.648624667258208</v>
+      </c>
+      <c r="F17" s="54">
+        <v>1.57931034482759</v>
+      </c>
+      <c r="G17" s="97"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
-        <v>30</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>1.8640760059437701E-3</v>
+        <v>2.1066303649878201E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>1.66142233370964E-2</v>
+        <v>0.19443600462031499</v>
       </c>
       <c r="D18" s="2">
-        <v>2.0406192508141501E-2</v>
+        <v>0.31907771814748598</v>
       </c>
       <c r="E18" s="2">
-        <v>0.118312924242086</v>
+        <v>0.62555456965394896</v>
       </c>
       <c r="F18" s="2">
-        <v>0.75885057471264405</v>
-      </c>
-      <c r="G18" s="101"/>
+        <v>1.31034482758621</v>
+      </c>
+      <c r="G18" s="96"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.6129717757091199E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.22815651903929701</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.590646413057208</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.73065774099221803</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.6358620689655201</v>
-      </c>
-      <c r="G19" s="100"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="74">
+        <v>3.1764185908168097E-2</v>
+      </c>
+      <c r="C19" s="75">
+        <v>0.153978031513712</v>
+      </c>
+      <c r="D19" s="75">
+        <v>0.30436247304422498</v>
+      </c>
+      <c r="E19" s="75">
+        <v>0.59368522020444203</v>
+      </c>
+      <c r="F19" s="75">
+        <v>1.4599748160097801</v>
+      </c>
+      <c r="G19" s="96"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="98" t="s">
-        <v>32</v>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="3">
-        <v>9.2955122938320808E-3</v>
+        <v>1.8962165467264001E-2</v>
       </c>
       <c r="C20" s="4">
-        <v>8.0340676279186896E-2</v>
+        <v>7.17058571953402E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>0.247018732392046</v>
+        <v>6.3124286566147006E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>0.40478572249290701</v>
+        <v>0.58480948676943101</v>
       </c>
       <c r="F20" s="4">
-        <v>1.3798467432950201</v>
-      </c>
-      <c r="G20" s="105"/>
+        <v>1.66379310344828</v>
+      </c>
+      <c r="G20" s="98"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="56">
-        <v>7.3865745253669707E-2</v>
-      </c>
-      <c r="C21" s="56">
-        <v>0.30348888513007899</v>
-      </c>
-      <c r="D21" s="56">
-        <v>0.32444253627509401</v>
-      </c>
-      <c r="E21" s="56">
-        <v>1.0084090922895499</v>
-      </c>
-      <c r="F21" s="56">
-        <v>1.85291187739464</v>
-      </c>
-      <c r="G21" s="102"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="54">
+        <v>6.9048790216909101E-2</v>
+      </c>
+      <c r="C21" s="54">
+        <v>0.13913823674359799</v>
+      </c>
+      <c r="D21" s="54">
+        <v>0.106716756112105</v>
+      </c>
+      <c r="E21" s="54">
+        <v>0.58207630878438299</v>
+      </c>
+      <c r="F21" s="54">
+        <v>1.3448275862068999</v>
+      </c>
+      <c r="G21" s="97"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
-        <v>34</v>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="B22" s="2">
-        <v>2.2943477599949798E-2</v>
+        <v>1.39417500681154E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>6.8008356959601293E-2</v>
+        <v>6.4000050998580901E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>5.8121941107987601E-2</v>
+        <v>8.3968288042706604E-2</v>
       </c>
       <c r="E22" s="2">
-        <v>0.50690612204947705</v>
+        <v>0.51446320442187099</v>
       </c>
       <c r="F22" s="2">
-        <v>1.51870279146141</v>
-      </c>
-      <c r="G22" s="100"/>
+        <v>1.6703065134099599</v>
+      </c>
+      <c r="G22" s="95"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
-        <v>35</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>1.8962165467264001E-2</v>
+        <v>3.1268373110339698E-2</v>
       </c>
       <c r="C23" s="2">
-        <v>7.17058571953402E-2</v>
+        <v>9.1106200392654602E-2</v>
       </c>
       <c r="D23" s="2">
-        <v>6.3124286566147006E-2</v>
+        <v>7.0969934640522897E-2</v>
       </c>
       <c r="E23" s="2">
-        <v>0.58480948676943101</v>
+        <v>0.51020408163265296</v>
       </c>
       <c r="F23" s="2">
-        <v>1.66379310344828</v>
-      </c>
-      <c r="G23" s="100"/>
+        <v>1.36551724137931</v>
+      </c>
+      <c r="G23" s="95"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
-        <v>36</v>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>8.1305601956596696E-2</v>
+        <v>2.2943477599949798E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>0.31239982647339198</v>
+        <v>6.8008356959601293E-2</v>
       </c>
       <c r="D24" s="2">
-        <v>0.46727701962120599</v>
+        <v>5.8121941107987601E-2</v>
       </c>
       <c r="E24" s="2">
-        <v>0.90833637753305396</v>
+        <v>0.50690612204947705</v>
       </c>
       <c r="F24" s="2">
-        <v>1.61787082649152</v>
-      </c>
-      <c r="G24" s="100"/>
+        <v>1.51870279146141</v>
+      </c>
+      <c r="G24" s="95"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="68" t="s">
-        <v>37</v>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="90" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>1.39417500681154E-2</v>
+        <v>4.6647443944797702E-2</v>
       </c>
       <c r="C25" s="4">
-        <v>6.4000050998580901E-2</v>
+        <v>8.9555541054596205E-2</v>
       </c>
       <c r="D25" s="4">
-        <v>8.3968288042706604E-2</v>
+        <v>4.5696933132227301E-2</v>
       </c>
       <c r="E25" s="4">
-        <v>0.51446320442187099</v>
+        <v>0.44631765749778202</v>
       </c>
       <c r="F25" s="4">
-        <v>1.6703065134099599</v>
-      </c>
-      <c r="G25" s="103"/>
+        <v>1.2068965517241399</v>
+      </c>
+      <c r="G25" s="98"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="56">
-        <v>6.6798780945196201E-2</v>
-      </c>
-      <c r="C26" s="56">
-        <v>0.235171285248092</v>
-      </c>
-      <c r="D26" s="56">
-        <v>0.271987989002347</v>
-      </c>
-      <c r="E26" s="56">
-        <v>0.67306517891599704</v>
-      </c>
-      <c r="F26" s="56">
-        <v>1.3282427725531201</v>
-      </c>
-      <c r="G26" s="102"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="54">
+        <v>1.9715653983770301E-2</v>
+      </c>
+      <c r="C26" s="54">
+        <v>6.1995005365130001E-2</v>
+      </c>
+      <c r="D26" s="54">
+        <v>7.2769560027986999E-2</v>
+      </c>
+      <c r="E26" s="54">
+        <v>0.443858890736955</v>
+      </c>
+      <c r="F26" s="54">
+        <v>1.42068965517241</v>
+      </c>
+      <c r="G26" s="97"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="70" t="s">
-        <v>39</v>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="92" t="s">
+        <v>32</v>
       </c>
       <c r="B27" s="2">
-        <v>4.2389097386598601E-2</v>
+        <v>9.2955122938320808E-3</v>
       </c>
       <c r="C27" s="2">
-        <v>0.18148099314109301</v>
+        <v>8.0340676279186896E-2</v>
       </c>
       <c r="D27" s="2">
-        <v>0.26391594326356699</v>
+        <v>0.247018732392046</v>
       </c>
       <c r="E27" s="2">
-        <v>0.70796409820737805</v>
+        <v>0.40478572249290701</v>
       </c>
       <c r="F27" s="2">
-        <v>1.3556712444643499</v>
-      </c>
-      <c r="G27" s="100"/>
+        <v>1.3798467432950201</v>
+      </c>
+      <c r="G27" s="96"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
-        <v>40</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="89" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>3.0468769544025699E-2</v>
+        <v>1.25717629149317E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>0.18975739853002299</v>
+        <v>7.1088715422901599E-2</v>
       </c>
       <c r="D28" s="2">
-        <v>0.35704187182326702</v>
+        <v>0.11644927357286899</v>
       </c>
       <c r="E28" s="2">
-        <v>0.87801692439655898</v>
+        <v>0.34977533817023798</v>
       </c>
       <c r="F28" s="2">
-        <v>1.7280188585361</v>
-      </c>
-      <c r="G28" s="100"/>
+        <v>1.11034482758621</v>
+      </c>
+      <c r="G28" s="95"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="71" t="s">
-        <v>41</v>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="86" t="s">
+        <v>17</v>
       </c>
       <c r="B29" s="4">
-        <v>2.7803074734955899E-2</v>
+        <v>2.6301463108938699E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>0.180912082566629</v>
+        <v>9.5399421987320598E-2</v>
       </c>
       <c r="D29" s="4">
-        <v>0.311941530708366</v>
+        <v>0.139816656728285</v>
       </c>
       <c r="E29" s="4">
-        <v>0.76665644944733302</v>
+        <v>0.29636202307009801</v>
       </c>
       <c r="F29" s="4">
-        <v>1.63846071552968</v>
-      </c>
-      <c r="G29" s="103"/>
+        <v>0.90344827586206899</v>
+      </c>
+      <c r="G29" s="100"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="73">
-        <v>4.0430612147262096E-3</v>
-      </c>
-      <c r="C30" s="74">
-        <v>1.9637046227989698E-2</v>
-      </c>
-      <c r="D30" s="74">
-        <v>8.2087863636055095E-2</v>
-      </c>
-      <c r="E30" s="74">
-        <v>0.16918854497144001</v>
-      </c>
-      <c r="F30" s="74">
-        <v>1.12598893232844</v>
-      </c>
-      <c r="G30" s="106"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="70">
+        <v>6.8207717849826897E-3</v>
+      </c>
+      <c r="C30" s="71">
+        <v>3.8897703867956802E-2</v>
+      </c>
+      <c r="D30" s="71">
+        <v>0.172816603405686</v>
+      </c>
+      <c r="E30" s="71">
+        <v>0.26783280077156402</v>
+      </c>
+      <c r="F30" s="71">
+        <v>1.13363038344259</v>
+      </c>
+      <c r="G30" s="101"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="77">
-        <v>3.1764185908168097E-2</v>
-      </c>
-      <c r="C31" s="78">
-        <v>0.153978031513712</v>
-      </c>
-      <c r="D31" s="78">
-        <v>0.30436247304422498</v>
-      </c>
-      <c r="E31" s="78">
-        <v>0.59368522020444203</v>
-      </c>
-      <c r="F31" s="78">
-        <v>1.4599748160097801</v>
-      </c>
-      <c r="G31" s="101"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.06987610842757E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3.6695692082222099E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.9649472096530901E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.247559893522626</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.2965517241379301</v>
+      </c>
+      <c r="G31" s="96"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="76" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="77">
+      <c r="B32" s="74">
         <v>4.0555478256312696E-3</v>
       </c>
-      <c r="C32" s="78">
+      <c r="C32" s="75">
         <v>2.0979101593437102E-2</v>
       </c>
-      <c r="D32" s="78">
+      <c r="D32" s="75">
         <v>0.114897525504862</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="75">
         <v>0.23782739737142</v>
       </c>
-      <c r="F32" s="78">
+      <c r="F32" s="75">
         <v>1.2087443505631099</v>
       </c>
-      <c r="G32" s="101"/>
+      <c r="G32" s="96"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="77">
-        <v>6.8207717849826897E-3</v>
-      </c>
-      <c r="C33" s="78">
-        <v>3.8897703867956802E-2</v>
-      </c>
-      <c r="D33" s="78">
-        <v>0.172816603405686</v>
-      </c>
-      <c r="E33" s="78">
-        <v>0.26783280077156402</v>
-      </c>
-      <c r="F33" s="78">
-        <v>1.13363038344259</v>
-      </c>
-      <c r="G33" s="101"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.44561776869546E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3.4600549015623101E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.28465242622546E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.23528373067905101</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G33" s="96"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="81">
-        <v>3.5627338586490899E-2</v>
-      </c>
-      <c r="C34" s="82">
-        <v>0.18349601563845599</v>
-      </c>
-      <c r="D34" s="82">
-        <v>0.29523713359667098</v>
-      </c>
-      <c r="E34" s="82">
-        <v>0.74115584581432403</v>
-      </c>
-      <c r="F34" s="82">
-        <v>1.55100595031973</v>
-      </c>
-      <c r="G34" s="103"/>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4.6667105564952996E-3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2.16000909740304E-2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2.7776927192657501E-2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.22015076824771901</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="G34" s="100"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="56">
-        <v>0.11380830253204299</v>
-      </c>
-      <c r="C35" s="56">
-        <v>0.36816281210843899</v>
-      </c>
-      <c r="D35" s="56">
-        <v>0.44809605674618402</v>
-      </c>
-      <c r="E35" s="56">
-        <v>1.0982740502191399</v>
-      </c>
-      <c r="F35" s="56">
-        <v>1.72092562027176</v>
-      </c>
-      <c r="G35" s="102"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="71">
+        <v>4.0430612147262096E-3</v>
+      </c>
+      <c r="C35" s="71">
+        <v>1.9637046227989698E-2</v>
+      </c>
+      <c r="D35" s="71">
+        <v>8.2087863636055095E-2</v>
+      </c>
+      <c r="E35" s="71">
+        <v>0.16918854497144001</v>
+      </c>
+      <c r="F35" s="71">
+        <v>1.12598893232844</v>
+      </c>
+      <c r="G35" s="101"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="99" t="s">
-        <v>48</v>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="94" t="s">
+        <v>30</v>
       </c>
       <c r="B36" s="4">
-        <v>0.21612985133670301</v>
+        <v>1.8640760059437701E-3</v>
       </c>
       <c r="C36" s="4">
-        <v>0.70304373346806803</v>
+        <v>1.66142233370964E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>0.91404534840479701</v>
+        <v>2.0406192508141501E-2</v>
       </c>
       <c r="E36" s="4">
-        <v>1.52464118333995</v>
+        <v>0.118312924242086</v>
       </c>
       <c r="F36" s="4">
-        <v>1.88088584294299</v>
-      </c>
-      <c r="G36" s="103"/>
+        <v>0.75885057471264405</v>
+      </c>
+      <c r="G36" s="100"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A3:F37">
+  <sortState ref="A3:G36">
     <sortCondition descending="1" ref="E2"/>
   </sortState>
   <mergeCells count="1">
@@ -6726,11 +6770,11 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54"/>
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53"/>
+      <c r="B1" s="52" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="30" t="s">
@@ -6746,7 +6790,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -6766,7 +6810,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -6786,7 +6830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
@@ -6806,7 +6850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -6826,8 +6870,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="15">
@@ -6846,8 +6890,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -6866,8 +6910,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -6886,8 +6930,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -6906,8 +6950,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -6926,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
@@ -6946,8 +6990,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="15">
@@ -6966,8 +7010,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -6986,8 +7030,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -7006,8 +7050,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -7026,7 +7070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>14</v>
       </c>
@@ -7046,8 +7090,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="15">
@@ -7066,8 +7110,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -7086,8 +7130,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
@@ -7106,8 +7150,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
@@ -7126,8 +7170,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
@@ -7146,8 +7190,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
@@ -7166,8 +7210,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -7186,8 +7230,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -7206,8 +7250,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
@@ -7226,8 +7270,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -7246,8 +7290,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
@@ -7266,8 +7310,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
@@ -7286,8 +7330,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
@@ -7306,8 +7350,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2">
@@ -7326,8 +7370,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
@@ -7346,8 +7390,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
@@ -7366,8 +7410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
@@ -7386,8 +7430,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2">
@@ -7406,8 +7450,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2">
@@ -7426,8 +7470,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -7446,8 +7490,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -7466,8 +7510,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -7486,8 +7530,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2">
@@ -7506,8 +7550,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2">
@@ -7526,8 +7570,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -7546,8 +7590,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -7566,8 +7610,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2">
@@ -7586,8 +7630,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2">
@@ -7606,8 +7650,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
@@ -7626,8 +7670,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
@@ -7646,8 +7690,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
@@ -7666,8 +7710,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2">
@@ -7686,8 +7730,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
@@ -7706,7 +7750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>48</v>
       </c>
@@ -7726,7 +7770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>49</v>
       </c>
@@ -7746,8 +7790,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
+    <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="15">
@@ -7766,8 +7810,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2">
@@ -7786,8 +7830,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="2">
@@ -7806,8 +7850,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="49" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2">
@@ -7826,8 +7870,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
@@ -7846,8 +7890,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="2">
@@ -7866,7 +7910,7 @@
         <v>0.177215189873418</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>56</v>
       </c>
@@ -7886,8 +7930,8 @@
         <v>0.69047619047619002</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
+    <row r="59" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="15">
@@ -7906,8 +7950,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2">
@@ -7926,8 +7970,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="2">
@@ -7946,8 +7990,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="2">
@@ -7966,7 +8010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>61</v>
       </c>
@@ -7986,8 +8030,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="15">
@@ -8006,8 +8050,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="2">
@@ -8026,8 +8070,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="49" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2">
@@ -8046,8 +8090,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
@@ -8066,7 +8110,7 @@
         <v>1.21518987341772</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>66</v>
       </c>
@@ -8086,8 +8130,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
+    <row r="69" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="15">
@@ -8106,8 +8150,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="49" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="2">
@@ -8126,8 +8170,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="49" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="2">
@@ -8146,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>70</v>
       </c>
@@ -8166,8 +8210,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="48" t="s">
+    <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="15">
@@ -8186,8 +8230,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="48" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2">
@@ -8206,8 +8250,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="49" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="2">
@@ -8226,8 +8270,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="49" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="2">
@@ -8246,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
         <v>75</v>
       </c>
@@ -8266,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>76</v>
       </c>
@@ -8286,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
         <v>77</v>
       </c>
@@ -8306,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>78</v>
       </c>
@@ -8326,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8340,27 +8384,27 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48"/>
-      <c r="B1" s="47" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47"/>
+      <c r="B1" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8424,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -8400,7 +8444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
@@ -8420,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -8440,8 +8484,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="15">
@@ -8460,8 +8504,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -8480,8 +8524,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -8500,8 +8544,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -8520,8 +8564,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -8540,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
@@ -8560,8 +8604,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
@@ -8580,8 +8624,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -8600,8 +8644,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -8620,8 +8664,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -8640,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>14</v>
       </c>
@@ -8660,8 +8704,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="15">
@@ -8680,8 +8724,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -8700,8 +8744,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
@@ -8720,8 +8764,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
@@ -8740,8 +8784,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
@@ -8760,8 +8804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
@@ -8780,8 +8824,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -8800,8 +8844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -8820,8 +8864,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
@@ -8840,8 +8884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -8860,8 +8904,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
@@ -8880,8 +8924,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
@@ -8900,8 +8944,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
@@ -8920,8 +8964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2">
@@ -8940,8 +8984,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
@@ -8960,8 +9004,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
@@ -8980,8 +9024,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
@@ -9000,8 +9044,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2">
@@ -9020,8 +9064,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2">
@@ -9040,8 +9084,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -9060,8 +9104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -9080,8 +9124,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -9100,8 +9144,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2">
@@ -9120,8 +9164,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2">
@@ -9140,8 +9184,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -9160,8 +9204,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -9180,8 +9224,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2">
@@ -9200,8 +9244,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2">
@@ -9220,8 +9264,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
@@ -9240,8 +9284,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
@@ -9260,8 +9304,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
@@ -9280,8 +9324,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2">
@@ -9300,8 +9344,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
@@ -9320,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>48</v>
       </c>
@@ -9340,8 +9384,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="48" t="s">
+    <row r="51" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="15">
@@ -9360,8 +9404,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="49" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="2">
@@ -9380,8 +9424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2">
@@ -9400,8 +9444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="2">
@@ -9420,8 +9464,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="49" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2">
@@ -9440,8 +9484,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
@@ -9460,8 +9504,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="2">
@@ -9480,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>56</v>
       </c>
@@ -9500,8 +9544,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
+    <row r="59" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="15">
@@ -9520,8 +9564,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2">
@@ -9540,8 +9584,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="2">
@@ -9560,8 +9604,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="2">
@@ -9580,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>61</v>
       </c>
@@ -9600,8 +9644,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="15">
@@ -9620,8 +9664,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="2">
@@ -9640,8 +9684,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="49" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2">
@@ -9660,8 +9704,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
@@ -9680,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>66</v>
       </c>
@@ -9700,8 +9744,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
+    <row r="69" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="15">
@@ -9720,8 +9764,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="49" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="2">
@@ -9740,8 +9784,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="49" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="2">
@@ -9760,8 +9804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="49" t="s">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="48" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="2">
@@ -9780,8 +9824,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="48" t="s">
+    <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="15">
@@ -9800,8 +9844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="48" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2">
@@ -9820,8 +9864,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="49" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="2">
@@ -9840,8 +9884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="49" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="2">
@@ -9860,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
         <v>75</v>
       </c>
@@ -9880,8 +9924,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="49" t="s">
+    <row r="78" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="48" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="2">
@@ -9900,8 +9944,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="49" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="48" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="2">
@@ -9920,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>78</v>
       </c>
@@ -9940,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9954,11 +9998,11 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>79</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -9974,7 +10018,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -9994,7 +10038,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
@@ -10014,7 +10058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>2</v>
       </c>
@@ -10034,7 +10078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>3</v>
       </c>
@@ -10054,8 +10098,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="15">
@@ -10074,8 +10118,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -10094,8 +10138,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -10114,8 +10158,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -10134,8 +10178,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -10154,7 +10198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>9</v>
       </c>
@@ -10174,8 +10218,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="15">
@@ -10194,8 +10238,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -10214,8 +10258,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -10234,8 +10278,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -10254,7 +10298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>14</v>
       </c>
@@ -10274,8 +10318,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+    <row r="17" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="15">
@@ -10294,8 +10338,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -10314,8 +10358,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2">
@@ -10334,8 +10378,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2">
@@ -10354,8 +10398,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2">
@@ -10374,8 +10418,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2">
@@ -10394,8 +10438,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -10414,8 +10458,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -10434,8 +10478,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="2">
@@ -10454,8 +10498,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -10474,8 +10518,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2">
@@ -10494,8 +10538,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2">
@@ -10514,8 +10558,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2">
@@ -10534,8 +10578,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2">
@@ -10554,8 +10598,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2">
@@ -10574,8 +10618,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2">
@@ -10594,8 +10638,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2">
@@ -10614,8 +10658,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2">
@@ -10634,8 +10678,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2">
@@ -10654,8 +10698,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -10674,8 +10718,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -10694,8 +10738,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -10714,8 +10758,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2">
@@ -10734,8 +10778,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2">
@@ -10754,8 +10798,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -10774,8 +10818,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -10794,8 +10838,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2">
@@ -10814,8 +10858,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2">
@@ -10834,8 +10878,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2">
@@ -10854,8 +10898,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="49" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2">
@@ -10874,8 +10918,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="2">
@@ -10894,8 +10938,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="49" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2">
@@ -10914,8 +10958,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="49" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2">
@@ -10934,7 +10978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>48</v>
       </c>
@@ -10954,7 +10998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
         <v>49</v>
       </c>
@@ -10974,8 +11018,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="48" t="s">
+    <row r="52" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="15">
@@ -10994,8 +11038,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2">
@@ -11014,8 +11058,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="49" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="2">
@@ -11034,8 +11078,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="49" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2">
@@ -11054,8 +11098,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2">
@@ -11074,8 +11118,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="49" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="2">
@@ -11094,7 +11138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>56</v>
       </c>
@@ -11114,8 +11158,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
+    <row r="59" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="15">
@@ -11134,8 +11178,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="49" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="48" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2">
@@ -11154,8 +11198,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="48" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="2">
@@ -11174,8 +11218,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="48" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="2">
@@ -11194,7 +11238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>61</v>
       </c>
@@ -11214,8 +11258,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="48" t="s">
+    <row r="64" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="15">
@@ -11234,8 +11278,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="48" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="2">
@@ -11254,8 +11298,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="49" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="48" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2">
@@ -11274,8 +11318,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="49" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="48" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2">
@@ -11294,7 +11338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>66</v>
       </c>
@@ -11314,8 +11358,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
+    <row r="69" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="15">
@@ -11334,8 +11378,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="49" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="2">
@@ -11354,8 +11398,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="49" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="48" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="2">
@@ -11374,7 +11418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>70</v>
       </c>
@@ -11394,8 +11438,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="48" t="s">
+    <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="47" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="15">
@@ -11414,8 +11458,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="49" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="48" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2">
@@ -11434,8 +11478,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="49" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="2">
@@ -11454,8 +11498,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="49" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="48" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="2">
@@ -11474,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
         <v>75</v>
       </c>
@@ -11494,7 +11538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23" t="s">
         <v>76</v>
       </c>
@@ -11514,7 +11558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23" t="s">
         <v>77</v>
       </c>
@@ -11534,7 +11578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>78</v>
       </c>
@@ -11554,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
